--- a/public/files/Bulk_Registration-TEMPLATE.xlsx
+++ b/public/files/Bulk_Registration-TEMPLATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Prototype-Vite\my-project\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Prototype-Vite\deployed-project\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479C23DC-3052-4827-B108-ECB7F8BF92AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33325DCA-9D13-43A7-825F-729DE611C8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6330" yWindow="3765" windowWidth="13740" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,21 +414,21 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="7" width="23.77734375" customWidth="1"/>
-    <col min="26" max="26" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="7" width="23.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>7</v>
       </c>
@@ -478,7 +478,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2" t="str">
-        <f>IF(AND(ISBLANK(D5),ISBLANK(G5)),"",{"","(Optional)"})</f>
+        <f>IF(AND(ISBLANK(D2),ISBLANK(G2)),"",{"","(Optional)"})</f>
         <v/>
       </c>
       <c r="F2" s="6"/>
@@ -506,7 +506,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -534,7 +534,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -572,7 +572,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -610,7 +610,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -648,7 +648,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -724,7 +724,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -800,7 +800,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -838,7 +838,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -876,7 +876,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -914,7 +914,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -990,7 +990,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1104,7 +1104,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1180,7 +1180,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1370,7 +1370,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -1522,7 +1522,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -1750,7 +1750,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>7</v>
       </c>
@@ -1978,7 +1978,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
@@ -2016,7 +2016,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -2130,7 +2130,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
@@ -2168,7 +2168,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
@@ -2206,7 +2206,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
@@ -2282,7 +2282,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -2320,7 +2320,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
@@ -2358,7 +2358,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
@@ -2396,7 +2396,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>7</v>
       </c>
@@ -2472,7 +2472,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>7</v>
       </c>
@@ -2548,7 +2548,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>7</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>7</v>
       </c>
@@ -2624,7 +2624,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
@@ -2738,7 +2738,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>7</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>7</v>
       </c>
@@ -2814,7 +2814,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
@@ -2890,7 +2890,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>7</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
@@ -2966,7 +2966,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>7</v>
       </c>
@@ -3004,7 +3004,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>7</v>
       </c>
@@ -3042,7 +3042,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>7</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
@@ -3118,7 +3118,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>7</v>
       </c>
@@ -3156,7 +3156,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>7</v>
       </c>
@@ -3194,7 +3194,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>7</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3298,7 +3298,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3326,7 +3326,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3354,7 +3354,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3382,7 +3382,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3410,7 +3410,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3438,7 +3438,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3466,7 +3466,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3494,7 +3494,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3522,7 +3522,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3550,7 +3550,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3578,7 +3578,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3606,7 +3606,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3634,7 +3634,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3662,7 +3662,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3690,7 +3690,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3718,7 +3718,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3746,7 +3746,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3774,7 +3774,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3802,7 +3802,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3830,7 +3830,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3858,7 +3858,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3886,7 +3886,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3914,7 +3914,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3942,7 +3942,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3970,7 +3970,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3998,7 +3998,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4026,7 +4026,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4054,7 +4054,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4082,7 +4082,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4110,7 +4110,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4138,7 +4138,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4166,7 +4166,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4194,7 +4194,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4222,7 +4222,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4250,7 +4250,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4278,7 +4278,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4306,7 +4306,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4334,7 +4334,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4362,7 +4362,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4390,7 +4390,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4418,7 +4418,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4446,7 +4446,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4474,7 +4474,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4502,7 +4502,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4530,7 +4530,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4558,7 +4558,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4586,7 +4586,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4614,7 +4614,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4642,7 +4642,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4670,7 +4670,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4698,7 +4698,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4726,7 +4726,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4754,7 +4754,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4782,7 +4782,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4810,7 +4810,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4838,7 +4838,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4866,7 +4866,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4894,7 +4894,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4922,7 +4922,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4950,7 +4950,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4978,7 +4978,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5006,7 +5006,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5034,7 +5034,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5062,7 +5062,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5090,7 +5090,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5118,7 +5118,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5146,7 +5146,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5174,7 +5174,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5202,7 +5202,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5230,7 +5230,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5258,7 +5258,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5286,7 +5286,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5314,7 +5314,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5342,7 +5342,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5370,7 +5370,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5398,7 +5398,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -5426,7 +5426,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5454,7 +5454,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5482,7 +5482,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5510,7 +5510,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5538,7 +5538,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5566,7 +5566,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5594,7 +5594,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5622,7 +5622,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5650,7 +5650,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5678,7 +5678,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5706,7 +5706,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5734,7 +5734,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5762,7 +5762,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5790,7 +5790,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5818,7 +5818,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5846,7 +5846,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5874,7 +5874,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5902,7 +5902,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5930,7 +5930,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5958,7 +5958,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5986,7 +5986,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6014,7 +6014,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6042,7 +6042,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6070,7 +6070,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6098,7 +6098,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6126,7 +6126,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6154,7 +6154,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6182,7 +6182,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6210,7 +6210,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6238,7 +6238,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6266,7 +6266,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6294,7 +6294,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6322,7 +6322,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6350,7 +6350,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6378,7 +6378,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6406,7 +6406,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6434,7 +6434,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6462,7 +6462,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6490,7 +6490,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6518,7 +6518,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6546,7 +6546,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6574,7 +6574,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6602,7 +6602,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6630,7 +6630,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6658,7 +6658,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6686,7 +6686,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6714,7 +6714,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6742,7 +6742,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6770,7 +6770,7 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -6798,7 +6798,7 @@
       <c r="Y201" s="10"/>
       <c r="Z201" s="10"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -6826,7 +6826,7 @@
       <c r="Y202" s="10"/>
       <c r="Z202" s="10"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -6854,7 +6854,7 @@
       <c r="Y203" s="10"/>
       <c r="Z203" s="10"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -6882,7 +6882,7 @@
       <c r="Y204" s="10"/>
       <c r="Z204" s="10"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -6910,7 +6910,7 @@
       <c r="Y205" s="10"/>
       <c r="Z205" s="10"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -6938,7 +6938,7 @@
       <c r="Y206" s="10"/>
       <c r="Z206" s="10"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -6966,7 +6966,7 @@
       <c r="Y207" s="10"/>
       <c r="Z207" s="10"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -6994,7 +6994,7 @@
       <c r="Y208" s="10"/>
       <c r="Z208" s="10"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -7022,7 +7022,7 @@
       <c r="Y209" s="10"/>
       <c r="Z209" s="10"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -7050,7 +7050,7 @@
       <c r="Y210" s="10"/>
       <c r="Z210" s="10"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -7078,7 +7078,7 @@
       <c r="Y211" s="10"/>
       <c r="Z211" s="10"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -7106,7 +7106,7 @@
       <c r="Y212" s="10"/>
       <c r="Z212" s="10"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -7134,7 +7134,7 @@
       <c r="Y213" s="10"/>
       <c r="Z213" s="10"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -7162,7 +7162,7 @@
       <c r="Y214" s="10"/>
       <c r="Z214" s="10"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -7190,7 +7190,7 @@
       <c r="Y215" s="10"/>
       <c r="Z215" s="10"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -7218,7 +7218,7 @@
       <c r="Y216" s="10"/>
       <c r="Z216" s="10"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -7246,7 +7246,7 @@
       <c r="Y217" s="10"/>
       <c r="Z217" s="10"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -7274,7 +7274,7 @@
       <c r="Y218" s="10"/>
       <c r="Z218" s="10"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -7302,7 +7302,7 @@
       <c r="Y219" s="10"/>
       <c r="Z219" s="10"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -7330,7 +7330,7 @@
       <c r="Y220" s="10"/>
       <c r="Z220" s="10"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -7358,7 +7358,7 @@
       <c r="Y221" s="10"/>
       <c r="Z221" s="10"/>
     </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -7386,7 +7386,7 @@
       <c r="Y222" s="10"/>
       <c r="Z222" s="10"/>
     </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -7414,7 +7414,7 @@
       <c r="Y223" s="10"/>
       <c r="Z223" s="10"/>
     </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -7442,7 +7442,7 @@
       <c r="Y224" s="10"/>
       <c r="Z224" s="10"/>
     </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -7470,7 +7470,7 @@
       <c r="Y225" s="10"/>
       <c r="Z225" s="10"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -7498,7 +7498,7 @@
       <c r="Y226" s="10"/>
       <c r="Z226" s="10"/>
     </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -7526,7 +7526,7 @@
       <c r="Y227" s="10"/>
       <c r="Z227" s="10"/>
     </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -7554,7 +7554,7 @@
       <c r="Y228" s="10"/>
       <c r="Z228" s="10"/>
     </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -7582,7 +7582,7 @@
       <c r="Y229" s="10"/>
       <c r="Z229" s="10"/>
     </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -7610,7 +7610,7 @@
       <c r="Y230" s="10"/>
       <c r="Z230" s="10"/>
     </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="10"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -7638,7 +7638,7 @@
       <c r="Y231" s="10"/>
       <c r="Z231" s="10"/>
     </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="10"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -7666,7 +7666,7 @@
       <c r="Y232" s="10"/>
       <c r="Z232" s="10"/>
     </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -7694,7 +7694,7 @@
       <c r="Y233" s="10"/>
       <c r="Z233" s="10"/>
     </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="10"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -7722,7 +7722,7 @@
       <c r="Y234" s="10"/>
       <c r="Z234" s="10"/>
     </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="10"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -7750,7 +7750,7 @@
       <c r="Y235" s="10"/>
       <c r="Z235" s="10"/>
     </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="10"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -7778,7 +7778,7 @@
       <c r="Y236" s="10"/>
       <c r="Z236" s="10"/>
     </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -7806,7 +7806,7 @@
       <c r="Y237" s="10"/>
       <c r="Z237" s="10"/>
     </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="10"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -7834,7 +7834,7 @@
       <c r="Y238" s="10"/>
       <c r="Z238" s="10"/>
     </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -7862,7 +7862,7 @@
       <c r="Y239" s="10"/>
       <c r="Z239" s="10"/>
     </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -7890,7 +7890,7 @@
       <c r="Y240" s="10"/>
       <c r="Z240" s="10"/>
     </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -7918,7 +7918,7 @@
       <c r="Y241" s="10"/>
       <c r="Z241" s="10"/>
     </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -7946,7 +7946,7 @@
       <c r="Y242" s="10"/>
       <c r="Z242" s="10"/>
     </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -7974,7 +7974,7 @@
       <c r="Y243" s="10"/>
       <c r="Z243" s="10"/>
     </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -8002,7 +8002,7 @@
       <c r="Y244" s="10"/>
       <c r="Z244" s="10"/>
     </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="10"/>
       <c r="B245" s="10"/>
       <c r="C245" s="10"/>
@@ -8030,7 +8030,7 @@
       <c r="Y245" s="10"/>
       <c r="Z245" s="10"/>
     </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="10"/>
       <c r="B246" s="10"/>
       <c r="C246" s="10"/>
@@ -8058,7 +8058,7 @@
       <c r="Y246" s="10"/>
       <c r="Z246" s="10"/>
     </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="10"/>
       <c r="B247" s="10"/>
       <c r="C247" s="10"/>
@@ -8086,7 +8086,7 @@
       <c r="Y247" s="10"/>
       <c r="Z247" s="10"/>
     </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="10"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -8114,7 +8114,7 @@
       <c r="Y248" s="10"/>
       <c r="Z248" s="10"/>
     </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="10"/>
       <c r="B249" s="10"/>
       <c r="C249" s="10"/>
@@ -8142,7 +8142,7 @@
       <c r="Y249" s="10"/>
       <c r="Z249" s="10"/>
     </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="10"/>
       <c r="B250" s="10"/>
       <c r="C250" s="10"/>
@@ -8170,7 +8170,7 @@
       <c r="Y250" s="10"/>
       <c r="Z250" s="10"/>
     </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="10"/>
       <c r="B251" s="10"/>
       <c r="C251" s="10"/>
@@ -8198,7 +8198,7 @@
       <c r="Y251" s="10"/>
       <c r="Z251" s="10"/>
     </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="10"/>
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
@@ -8226,7 +8226,7 @@
       <c r="Y252" s="10"/>
       <c r="Z252" s="10"/>
     </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="10"/>
       <c r="B253" s="10"/>
       <c r="C253" s="10"/>
@@ -8254,7 +8254,7 @@
       <c r="Y253" s="10"/>
       <c r="Z253" s="10"/>
     </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="10"/>
       <c r="B254" s="10"/>
       <c r="C254" s="10"/>
@@ -8282,7 +8282,7 @@
       <c r="Y254" s="10"/>
       <c r="Z254" s="10"/>
     </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
@@ -8310,7 +8310,7 @@
       <c r="Y255" s="10"/>
       <c r="Z255" s="10"/>
     </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="10"/>
       <c r="B256" s="10"/>
       <c r="C256" s="10"/>
@@ -8338,7 +8338,7 @@
       <c r="Y256" s="10"/>
       <c r="Z256" s="10"/>
     </row>
-    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="10"/>
       <c r="B257" s="10"/>
       <c r="C257" s="10"/>
@@ -8366,7 +8366,7 @@
       <c r="Y257" s="10"/>
       <c r="Z257" s="10"/>
     </row>
-    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="10"/>
       <c r="B258" s="10"/>
       <c r="C258" s="10"/>
@@ -8394,7 +8394,7 @@
       <c r="Y258" s="10"/>
       <c r="Z258" s="10"/>
     </row>
-    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="10"/>
       <c r="B259" s="10"/>
       <c r="C259" s="10"/>
@@ -8422,7 +8422,7 @@
       <c r="Y259" s="10"/>
       <c r="Z259" s="10"/>
     </row>
-    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="10"/>
       <c r="B260" s="10"/>
       <c r="C260" s="10"/>
@@ -8450,7 +8450,7 @@
       <c r="Y260" s="10"/>
       <c r="Z260" s="10"/>
     </row>
-    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="10"/>
       <c r="B261" s="10"/>
       <c r="C261" s="10"/>
@@ -8478,7 +8478,7 @@
       <c r="Y261" s="10"/>
       <c r="Z261" s="10"/>
     </row>
-    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="10"/>
       <c r="B262" s="10"/>
       <c r="C262" s="10"/>
@@ -8506,7 +8506,7 @@
       <c r="Y262" s="10"/>
       <c r="Z262" s="10"/>
     </row>
-    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="10"/>
       <c r="B263" s="10"/>
       <c r="C263" s="10"/>
@@ -8534,7 +8534,7 @@
       <c r="Y263" s="10"/>
       <c r="Z263" s="10"/>
     </row>
-    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="10"/>
       <c r="B264" s="10"/>
       <c r="C264" s="10"/>
@@ -8562,7 +8562,7 @@
       <c r="Y264" s="10"/>
       <c r="Z264" s="10"/>
     </row>
-    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="10"/>
       <c r="B265" s="10"/>
       <c r="C265" s="10"/>
@@ -8590,7 +8590,7 @@
       <c r="Y265" s="10"/>
       <c r="Z265" s="10"/>
     </row>
-    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="10"/>
       <c r="B266" s="10"/>
       <c r="C266" s="10"/>
@@ -8618,7 +8618,7 @@
       <c r="Y266" s="10"/>
       <c r="Z266" s="10"/>
     </row>
-    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="10"/>
       <c r="B267" s="10"/>
       <c r="C267" s="10"/>
@@ -8646,7 +8646,7 @@
       <c r="Y267" s="10"/>
       <c r="Z267" s="10"/>
     </row>
-    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="10"/>
       <c r="B268" s="10"/>
       <c r="C268" s="10"/>
@@ -8674,7 +8674,7 @@
       <c r="Y268" s="10"/>
       <c r="Z268" s="10"/>
     </row>
-    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="10"/>
       <c r="B269" s="10"/>
       <c r="C269" s="10"/>
@@ -8702,7 +8702,7 @@
       <c r="Y269" s="10"/>
       <c r="Z269" s="10"/>
     </row>
-    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="10"/>
       <c r="B270" s="10"/>
       <c r="C270" s="10"/>
@@ -8730,7 +8730,7 @@
       <c r="Y270" s="10"/>
       <c r="Z270" s="10"/>
     </row>
-    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="10"/>
       <c r="B271" s="10"/>
       <c r="C271" s="10"/>
@@ -8758,7 +8758,7 @@
       <c r="Y271" s="10"/>
       <c r="Z271" s="10"/>
     </row>
-    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="10"/>
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
@@ -8786,7 +8786,7 @@
       <c r="Y272" s="10"/>
       <c r="Z272" s="10"/>
     </row>
-    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="10"/>
       <c r="B273" s="10"/>
       <c r="C273" s="10"/>
@@ -8814,7 +8814,7 @@
       <c r="Y273" s="10"/>
       <c r="Z273" s="10"/>
     </row>
-    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="10"/>
       <c r="B274" s="10"/>
       <c r="C274" s="10"/>
@@ -8842,7 +8842,7 @@
       <c r="Y274" s="10"/>
       <c r="Z274" s="10"/>
     </row>
-    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="10"/>
       <c r="B275" s="10"/>
       <c r="C275" s="10"/>
@@ -8870,2188 +8870,2186 @@
       <c r="Y275" s="10"/>
       <c r="Z275" s="10"/>
     </row>
-    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G276" s="11"/>
     </row>
-    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G277" s="11"/>
     </row>
-    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G278" s="11"/>
     </row>
-    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G279" s="11"/>
     </row>
-    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G280" s="11"/>
     </row>
-    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G281" s="11"/>
     </row>
-    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G282" s="11"/>
     </row>
-    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G283" s="11"/>
     </row>
-    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G284" s="11"/>
     </row>
-    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G285" s="11"/>
     </row>
-    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G286" s="11"/>
     </row>
-    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G287" s="11"/>
     </row>
-    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G288" s="11"/>
     </row>
-    <row r="289" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G289" s="11"/>
     </row>
-    <row r="290" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G290" s="11"/>
     </row>
-    <row r="291" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G291" s="11"/>
     </row>
-    <row r="292" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G292" s="11"/>
     </row>
-    <row r="293" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G293" s="11"/>
     </row>
-    <row r="294" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G294" s="11"/>
     </row>
-    <row r="295" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G295" s="11"/>
     </row>
-    <row r="296" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G296" s="11"/>
     </row>
-    <row r="297" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G297" s="11"/>
     </row>
-    <row r="298" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G298" s="11"/>
     </row>
-    <row r="299" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G299" s="11"/>
     </row>
-    <row r="300" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G300" s="11"/>
     </row>
-    <row r="301" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G301" s="11"/>
     </row>
-    <row r="302" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G302" s="11"/>
     </row>
-    <row r="303" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G303" s="11"/>
     </row>
-    <row r="304" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G304" s="11"/>
     </row>
-    <row r="305" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G305" s="11"/>
     </row>
-    <row r="306" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G306" s="11"/>
     </row>
-    <row r="307" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G307" s="11"/>
     </row>
-    <row r="308" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G308" s="11"/>
     </row>
-    <row r="309" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G309" s="11"/>
     </row>
-    <row r="310" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G310" s="11"/>
     </row>
-    <row r="311" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G311" s="11"/>
     </row>
-    <row r="312" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G312" s="11"/>
     </row>
-    <row r="313" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G313" s="11"/>
     </row>
-    <row r="314" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G314" s="11"/>
     </row>
-    <row r="315" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G315" s="11"/>
     </row>
-    <row r="316" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G316" s="11"/>
     </row>
-    <row r="317" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G317" s="11"/>
     </row>
-    <row r="318" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G318" s="11"/>
     </row>
-    <row r="319" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G319" s="11"/>
     </row>
-    <row r="320" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G320" s="11"/>
     </row>
-    <row r="321" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G321" s="11"/>
     </row>
-    <row r="322" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G322" s="11"/>
     </row>
-    <row r="323" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G323" s="11"/>
     </row>
-    <row r="324" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G324" s="11"/>
     </row>
-    <row r="325" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G325" s="11"/>
     </row>
-    <row r="326" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G326" s="11"/>
     </row>
-    <row r="327" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G327" s="11"/>
     </row>
-    <row r="328" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G328" s="11"/>
     </row>
-    <row r="329" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G329" s="11"/>
     </row>
-    <row r="330" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G330" s="11"/>
     </row>
-    <row r="331" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G331" s="11"/>
     </row>
-    <row r="332" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G332" s="11"/>
     </row>
-    <row r="333" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G333" s="11"/>
     </row>
-    <row r="334" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G334" s="11"/>
     </row>
-    <row r="335" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G335" s="11"/>
     </row>
-    <row r="336" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G336" s="11"/>
     </row>
-    <row r="337" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G337" s="11"/>
     </row>
-    <row r="338" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G338" s="11"/>
     </row>
-    <row r="339" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G339" s="11"/>
     </row>
-    <row r="340" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G340" s="11"/>
     </row>
-    <row r="341" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G341" s="11"/>
     </row>
-    <row r="342" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G342" s="11"/>
     </row>
-    <row r="343" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G343" s="11"/>
     </row>
-    <row r="344" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G344" s="11"/>
     </row>
-    <row r="345" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G345" s="11"/>
     </row>
-    <row r="346" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G346" s="11"/>
     </row>
-    <row r="347" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G347" s="11"/>
     </row>
-    <row r="348" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G348" s="11"/>
     </row>
-    <row r="349" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G349" s="11"/>
     </row>
-    <row r="350" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G350" s="11"/>
     </row>
-    <row r="351" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G351" s="11"/>
     </row>
-    <row r="352" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G352" s="11"/>
     </row>
-    <row r="353" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G353" s="11"/>
     </row>
-    <row r="354" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G354" s="11"/>
     </row>
-    <row r="355" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G355" s="11"/>
     </row>
-    <row r="356" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G356" s="11"/>
     </row>
-    <row r="357" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G357" s="11"/>
     </row>
-    <row r="358" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G358" s="11"/>
     </row>
-    <row r="359" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G359" s="11"/>
     </row>
-    <row r="360" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G360" s="11"/>
     </row>
-    <row r="361" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G361" s="11"/>
     </row>
-    <row r="362" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G362" s="11"/>
     </row>
-    <row r="363" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G363" s="11"/>
     </row>
-    <row r="364" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G364" s="11"/>
     </row>
-    <row r="365" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G365" s="11"/>
     </row>
-    <row r="366" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G366" s="11"/>
     </row>
-    <row r="367" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G367" s="11"/>
     </row>
-    <row r="368" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G368" s="11"/>
     </row>
-    <row r="369" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G369" s="11"/>
     </row>
-    <row r="370" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G370" s="11"/>
     </row>
-    <row r="371" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G371" s="11"/>
     </row>
-    <row r="372" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G372" s="11"/>
     </row>
-    <row r="373" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G373" s="11"/>
     </row>
-    <row r="374" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G374" s="11"/>
     </row>
-    <row r="375" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G375" s="11"/>
     </row>
-    <row r="376" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G376" s="11"/>
     </row>
-    <row r="377" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G377" s="11"/>
     </row>
-    <row r="378" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G378" s="11"/>
     </row>
-    <row r="379" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G379" s="11"/>
     </row>
-    <row r="380" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G380" s="11"/>
     </row>
-    <row r="381" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G381" s="11"/>
     </row>
-    <row r="382" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G382" s="11"/>
     </row>
-    <row r="383" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G383" s="11"/>
     </row>
-    <row r="384" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G384" s="11"/>
     </row>
-    <row r="385" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G385" s="11"/>
     </row>
-    <row r="386" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G386" s="11"/>
     </row>
-    <row r="387" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G387" s="11"/>
     </row>
-    <row r="388" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G388" s="11"/>
     </row>
-    <row r="389" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G389" s="11"/>
     </row>
-    <row r="390" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G390" s="11"/>
     </row>
-    <row r="391" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G391" s="11"/>
     </row>
-    <row r="392" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G392" s="11"/>
     </row>
-    <row r="393" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G393" s="11"/>
     </row>
-    <row r="394" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G394" s="11"/>
     </row>
-    <row r="395" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G395" s="11"/>
     </row>
-    <row r="396" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G396" s="11"/>
     </row>
-    <row r="397" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G397" s="11"/>
     </row>
-    <row r="398" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G398" s="11"/>
     </row>
-    <row r="399" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G399" s="11"/>
     </row>
-    <row r="400" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G400" s="11"/>
     </row>
-    <row r="401" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G401" s="11"/>
     </row>
-    <row r="402" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G402" s="11"/>
     </row>
-    <row r="403" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G403" s="11"/>
     </row>
-    <row r="404" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G404" s="11"/>
     </row>
-    <row r="405" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G405" s="11"/>
     </row>
-    <row r="406" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G406" s="11"/>
     </row>
-    <row r="407" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G407" s="11"/>
     </row>
-    <row r="408" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G408" s="11"/>
     </row>
-    <row r="409" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G409" s="11"/>
     </row>
-    <row r="410" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G410" s="11"/>
     </row>
-    <row r="411" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G411" s="11"/>
     </row>
-    <row r="412" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G412" s="11"/>
     </row>
-    <row r="413" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G413" s="11"/>
     </row>
-    <row r="414" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G414" s="11"/>
     </row>
-    <row r="415" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G415" s="11"/>
     </row>
-    <row r="416" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G416" s="11"/>
     </row>
-    <row r="417" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G417" s="11"/>
     </row>
-    <row r="418" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G418" s="11"/>
     </row>
-    <row r="419" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G419" s="11"/>
     </row>
-    <row r="420" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G420" s="11"/>
     </row>
-    <row r="421" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G421" s="11"/>
     </row>
-    <row r="422" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G422" s="11"/>
     </row>
-    <row r="423" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G423" s="11"/>
     </row>
-    <row r="424" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G424" s="11"/>
     </row>
-    <row r="425" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G425" s="11"/>
     </row>
-    <row r="426" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G426" s="11"/>
     </row>
-    <row r="427" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G427" s="11"/>
     </row>
-    <row r="428" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G428" s="11"/>
     </row>
-    <row r="429" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G429" s="11"/>
     </row>
-    <row r="430" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G430" s="11"/>
     </row>
-    <row r="431" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G431" s="11"/>
     </row>
-    <row r="432" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G432" s="11"/>
     </row>
-    <row r="433" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G433" s="11"/>
     </row>
-    <row r="434" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G434" s="11"/>
     </row>
-    <row r="435" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G435" s="11"/>
     </row>
-    <row r="436" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G436" s="11"/>
     </row>
-    <row r="437" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G437" s="11"/>
     </row>
-    <row r="438" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G438" s="11"/>
     </row>
-    <row r="439" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G439" s="11"/>
     </row>
-    <row r="440" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G440" s="11"/>
     </row>
-    <row r="441" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G441" s="11"/>
     </row>
-    <row r="442" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G442" s="11"/>
     </row>
-    <row r="443" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G443" s="11"/>
     </row>
-    <row r="444" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G444" s="11"/>
     </row>
-    <row r="445" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G445" s="11"/>
     </row>
-    <row r="446" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G446" s="11"/>
     </row>
-    <row r="447" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G447" s="11"/>
     </row>
-    <row r="448" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G448" s="11"/>
     </row>
-    <row r="449" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G449" s="11"/>
     </row>
-    <row r="450" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G450" s="11"/>
     </row>
-    <row r="451" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G451" s="11"/>
     </row>
-    <row r="452" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G452" s="11"/>
     </row>
-    <row r="453" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G453" s="11"/>
     </row>
-    <row r="454" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G454" s="11"/>
     </row>
-    <row r="455" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G455" s="11"/>
     </row>
-    <row r="456" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G456" s="11"/>
     </row>
-    <row r="457" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G457" s="11"/>
     </row>
-    <row r="458" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G458" s="11"/>
     </row>
-    <row r="459" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G459" s="11"/>
     </row>
-    <row r="460" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G460" s="11"/>
     </row>
-    <row r="461" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G461" s="11"/>
     </row>
-    <row r="462" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G462" s="11"/>
     </row>
-    <row r="463" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G463" s="11"/>
     </row>
-    <row r="464" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G464" s="11"/>
     </row>
-    <row r="465" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G465" s="11"/>
     </row>
-    <row r="466" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G466" s="11"/>
     </row>
-    <row r="467" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G467" s="11"/>
     </row>
-    <row r="468" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G468" s="11"/>
     </row>
-    <row r="469" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G469" s="11"/>
     </row>
-    <row r="470" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G470" s="11"/>
     </row>
-    <row r="471" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G471" s="11"/>
     </row>
-    <row r="472" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G472" s="11"/>
     </row>
-    <row r="473" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G473" s="11"/>
     </row>
-    <row r="474" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G474" s="11"/>
     </row>
-    <row r="475" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G475" s="11"/>
     </row>
-    <row r="476" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G476" s="11"/>
     </row>
-    <row r="477" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G477" s="11"/>
     </row>
-    <row r="478" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G478" s="11"/>
     </row>
-    <row r="479" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G479" s="11"/>
     </row>
-    <row r="480" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G480" s="11"/>
     </row>
-    <row r="481" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G481" s="11"/>
     </row>
-    <row r="482" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G482" s="11"/>
     </row>
-    <row r="483" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G483" s="11"/>
     </row>
-    <row r="484" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G484" s="11"/>
     </row>
-    <row r="485" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G485" s="11"/>
     </row>
-    <row r="486" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G486" s="11"/>
     </row>
-    <row r="487" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G487" s="11"/>
     </row>
-    <row r="488" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G488" s="11"/>
     </row>
-    <row r="489" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G489" s="11"/>
     </row>
-    <row r="490" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G490" s="11"/>
     </row>
-    <row r="491" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G491" s="11"/>
     </row>
-    <row r="492" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G492" s="11"/>
     </row>
-    <row r="493" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G493" s="11"/>
     </row>
-    <row r="494" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G494" s="11"/>
     </row>
-    <row r="495" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G495" s="11"/>
     </row>
-    <row r="496" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G496" s="11"/>
     </row>
-    <row r="497" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G497" s="11"/>
     </row>
-    <row r="498" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G498" s="11"/>
     </row>
-    <row r="499" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G499" s="11"/>
     </row>
-    <row r="500" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G500" s="11"/>
     </row>
-    <row r="501" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G501" s="11"/>
     </row>
-    <row r="502" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G502" s="11"/>
     </row>
-    <row r="503" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G503" s="11"/>
     </row>
-    <row r="504" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G504" s="11"/>
     </row>
-    <row r="505" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G505" s="11"/>
     </row>
-    <row r="506" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G506" s="11"/>
     </row>
-    <row r="507" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G507" s="11"/>
     </row>
-    <row r="508" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G508" s="11"/>
     </row>
-    <row r="509" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G509" s="11"/>
     </row>
-    <row r="510" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G510" s="11"/>
     </row>
-    <row r="511" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G511" s="11"/>
     </row>
-    <row r="512" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G512" s="11"/>
     </row>
-    <row r="513" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G513" s="11"/>
     </row>
-    <row r="514" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G514" s="11"/>
     </row>
-    <row r="515" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G515" s="11"/>
     </row>
-    <row r="516" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G516" s="11"/>
     </row>
-    <row r="517" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G517" s="11"/>
     </row>
-    <row r="518" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G518" s="11"/>
     </row>
-    <row r="519" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G519" s="11"/>
     </row>
-    <row r="520" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G520" s="11"/>
     </row>
-    <row r="521" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G521" s="11"/>
     </row>
-    <row r="522" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G522" s="11"/>
     </row>
-    <row r="523" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G523" s="11"/>
     </row>
-    <row r="524" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G524" s="11"/>
     </row>
-    <row r="525" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G525" s="11"/>
     </row>
-    <row r="526" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G526" s="11"/>
     </row>
-    <row r="527" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G527" s="11"/>
     </row>
-    <row r="528" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G528" s="11"/>
     </row>
-    <row r="529" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G529" s="11"/>
     </row>
-    <row r="530" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G530" s="11"/>
     </row>
-    <row r="531" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G531" s="11"/>
     </row>
-    <row r="532" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G532" s="11"/>
     </row>
-    <row r="533" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G533" s="11"/>
     </row>
-    <row r="534" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G534" s="11"/>
     </row>
-    <row r="535" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G535" s="11"/>
     </row>
-    <row r="536" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G536" s="11"/>
     </row>
-    <row r="537" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G537" s="11"/>
     </row>
-    <row r="538" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G538" s="11"/>
     </row>
-    <row r="539" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G539" s="11"/>
     </row>
-    <row r="540" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G540" s="11"/>
     </row>
-    <row r="541" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G541" s="11"/>
     </row>
-    <row r="542" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G542" s="11"/>
     </row>
-    <row r="543" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G543" s="11"/>
     </row>
-    <row r="544" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G544" s="11"/>
     </row>
-    <row r="545" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G545" s="11"/>
     </row>
-    <row r="546" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G546" s="11"/>
     </row>
-    <row r="547" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G547" s="11"/>
     </row>
-    <row r="548" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G548" s="11"/>
     </row>
-    <row r="549" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G549" s="11"/>
     </row>
-    <row r="550" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G550" s="11"/>
     </row>
-    <row r="551" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G551" s="11"/>
     </row>
-    <row r="552" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G552" s="11"/>
     </row>
-    <row r="553" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G553" s="11"/>
     </row>
-    <row r="554" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G554" s="11"/>
     </row>
-    <row r="555" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G555" s="11"/>
     </row>
-    <row r="556" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G556" s="11"/>
     </row>
-    <row r="557" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G557" s="11"/>
     </row>
-    <row r="558" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G558" s="11"/>
     </row>
-    <row r="559" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G559" s="11"/>
     </row>
-    <row r="560" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G560" s="11"/>
     </row>
-    <row r="561" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G561" s="11"/>
     </row>
-    <row r="562" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G562" s="11"/>
     </row>
-    <row r="563" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G563" s="11"/>
     </row>
-    <row r="564" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G564" s="11"/>
     </row>
-    <row r="565" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G565" s="11"/>
     </row>
-    <row r="566" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G566" s="11"/>
     </row>
-    <row r="567" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G567" s="11"/>
     </row>
-    <row r="568" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G568" s="11"/>
     </row>
-    <row r="569" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G569" s="11"/>
     </row>
-    <row r="570" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G570" s="11"/>
     </row>
-    <row r="571" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G571" s="11"/>
     </row>
-    <row r="572" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G572" s="11"/>
     </row>
-    <row r="573" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G573" s="11"/>
     </row>
-    <row r="574" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G574" s="11"/>
     </row>
-    <row r="575" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G575" s="11"/>
     </row>
-    <row r="576" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G576" s="11"/>
     </row>
-    <row r="577" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G577" s="11"/>
     </row>
-    <row r="578" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G578" s="11"/>
     </row>
-    <row r="579" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G579" s="11"/>
     </row>
-    <row r="580" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G580" s="11"/>
     </row>
-    <row r="581" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G581" s="11"/>
     </row>
-    <row r="582" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G582" s="11"/>
     </row>
-    <row r="583" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G583" s="11"/>
     </row>
-    <row r="584" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G584" s="11"/>
     </row>
-    <row r="585" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G585" s="11"/>
     </row>
-    <row r="586" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G586" s="11"/>
     </row>
-    <row r="587" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G587" s="11"/>
     </row>
-    <row r="588" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G588" s="11"/>
     </row>
-    <row r="589" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G589" s="11"/>
     </row>
-    <row r="590" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G590" s="11"/>
     </row>
-    <row r="591" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G591" s="11"/>
     </row>
-    <row r="592" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G592" s="11"/>
     </row>
-    <row r="593" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G593" s="11"/>
     </row>
-    <row r="594" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G594" s="11"/>
     </row>
-    <row r="595" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G595" s="11"/>
     </row>
-    <row r="596" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G596" s="11"/>
     </row>
-    <row r="597" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G597" s="11"/>
     </row>
-    <row r="598" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G598" s="11"/>
     </row>
-    <row r="599" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G599" s="11"/>
     </row>
-    <row r="600" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G600" s="11"/>
     </row>
-    <row r="601" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G601" s="11"/>
     </row>
-    <row r="602" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G602" s="11"/>
     </row>
-    <row r="603" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G603" s="11"/>
     </row>
-    <row r="604" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G604" s="11"/>
     </row>
-    <row r="605" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G605" s="11"/>
     </row>
-    <row r="606" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G606" s="11"/>
     </row>
-    <row r="607" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G607" s="11"/>
     </row>
-    <row r="608" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G608" s="11"/>
     </row>
-    <row r="609" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G609" s="11"/>
     </row>
-    <row r="610" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G610" s="11"/>
     </row>
-    <row r="611" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G611" s="11"/>
     </row>
-    <row r="612" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G612" s="11"/>
     </row>
-    <row r="613" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G613" s="11"/>
     </row>
-    <row r="614" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G614" s="11"/>
     </row>
-    <row r="615" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G615" s="11"/>
     </row>
-    <row r="616" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G616" s="11"/>
     </row>
-    <row r="617" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G617" s="11"/>
     </row>
-    <row r="618" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G618" s="11"/>
     </row>
-    <row r="619" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G619" s="11"/>
     </row>
-    <row r="620" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G620" s="11"/>
     </row>
-    <row r="621" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G621" s="11"/>
     </row>
-    <row r="622" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G622" s="11"/>
     </row>
-    <row r="623" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G623" s="11"/>
     </row>
-    <row r="624" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G624" s="11"/>
     </row>
-    <row r="625" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G625" s="11"/>
     </row>
-    <row r="626" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G626" s="11"/>
     </row>
-    <row r="627" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G627" s="11"/>
     </row>
-    <row r="628" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G628" s="11"/>
     </row>
-    <row r="629" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G629" s="11"/>
     </row>
-    <row r="630" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G630" s="11"/>
     </row>
-    <row r="631" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G631" s="11"/>
     </row>
-    <row r="632" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G632" s="11"/>
     </row>
-    <row r="633" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G633" s="11"/>
     </row>
-    <row r="634" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G634" s="11"/>
     </row>
-    <row r="635" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G635" s="11"/>
     </row>
-    <row r="636" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G636" s="11"/>
     </row>
-    <row r="637" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G637" s="11"/>
     </row>
-    <row r="638" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G638" s="11"/>
     </row>
-    <row r="639" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G639" s="11"/>
     </row>
-    <row r="640" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G640" s="11"/>
     </row>
-    <row r="641" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G641" s="11"/>
     </row>
-    <row r="642" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G642" s="11"/>
     </row>
-    <row r="643" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G643" s="11"/>
     </row>
-    <row r="644" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G644" s="11"/>
     </row>
-    <row r="645" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G645" s="11"/>
     </row>
-    <row r="646" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G646" s="11"/>
     </row>
-    <row r="647" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G647" s="11"/>
     </row>
-    <row r="648" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G648" s="11"/>
     </row>
-    <row r="649" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G649" s="11"/>
     </row>
-    <row r="650" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G650" s="11"/>
     </row>
-    <row r="651" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G651" s="11"/>
     </row>
-    <row r="652" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G652" s="11"/>
     </row>
-    <row r="653" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G653" s="11"/>
     </row>
-    <row r="654" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G654" s="11"/>
     </row>
-    <row r="655" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G655" s="11"/>
     </row>
-    <row r="656" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G656" s="11"/>
     </row>
-    <row r="657" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G657" s="11"/>
     </row>
-    <row r="658" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G658" s="11"/>
     </row>
-    <row r="659" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G659" s="11"/>
     </row>
-    <row r="660" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G660" s="11"/>
     </row>
-    <row r="661" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G661" s="11"/>
     </row>
-    <row r="662" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G662" s="11"/>
     </row>
-    <row r="663" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G663" s="11"/>
     </row>
-    <row r="664" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G664" s="11"/>
     </row>
-    <row r="665" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G665" s="11"/>
     </row>
-    <row r="666" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G666" s="11"/>
     </row>
-    <row r="667" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G667" s="11"/>
     </row>
-    <row r="668" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G668" s="11"/>
     </row>
-    <row r="669" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G669" s="11"/>
     </row>
-    <row r="670" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G670" s="11"/>
     </row>
-    <row r="671" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G671" s="11"/>
     </row>
-    <row r="672" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G672" s="11"/>
     </row>
-    <row r="673" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G673" s="11"/>
     </row>
-    <row r="674" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G674" s="11"/>
     </row>
-    <row r="675" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G675" s="11"/>
     </row>
-    <row r="676" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G676" s="11"/>
     </row>
-    <row r="677" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G677" s="11"/>
     </row>
-    <row r="678" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G678" s="11"/>
     </row>
-    <row r="679" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G679" s="11"/>
     </row>
-    <row r="680" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G680" s="11"/>
     </row>
-    <row r="681" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G681" s="11"/>
     </row>
-    <row r="682" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G682" s="11"/>
     </row>
-    <row r="683" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G683" s="11"/>
     </row>
-    <row r="684" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G684" s="11"/>
     </row>
-    <row r="685" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G685" s="11"/>
     </row>
-    <row r="686" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G686" s="11"/>
     </row>
-    <row r="687" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G687" s="11"/>
     </row>
-    <row r="688" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G688" s="11"/>
     </row>
-    <row r="689" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G689" s="11"/>
     </row>
-    <row r="690" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G690" s="11"/>
     </row>
-    <row r="691" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G691" s="11"/>
     </row>
-    <row r="692" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G692" s="11"/>
     </row>
-    <row r="693" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G693" s="11"/>
     </row>
-    <row r="694" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G694" s="11"/>
     </row>
-    <row r="695" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G695" s="11"/>
     </row>
-    <row r="696" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G696" s="11"/>
     </row>
-    <row r="697" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G697" s="11"/>
     </row>
-    <row r="698" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G698" s="11"/>
     </row>
-    <row r="699" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G699" s="11"/>
     </row>
-    <row r="700" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G700" s="11"/>
     </row>
-    <row r="701" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G701" s="11"/>
     </row>
-    <row r="702" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G702" s="11"/>
     </row>
-    <row r="703" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G703" s="11"/>
     </row>
-    <row r="704" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G704" s="11"/>
     </row>
-    <row r="705" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G705" s="11"/>
     </row>
-    <row r="706" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G706" s="11"/>
     </row>
-    <row r="707" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G707" s="11"/>
     </row>
-    <row r="708" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G708" s="11"/>
     </row>
-    <row r="709" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G709" s="11"/>
     </row>
-    <row r="710" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G710" s="11"/>
     </row>
-    <row r="711" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G711" s="11"/>
     </row>
-    <row r="712" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G712" s="11"/>
     </row>
-    <row r="713" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G713" s="11"/>
     </row>
-    <row r="714" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G714" s="11"/>
     </row>
-    <row r="715" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G715" s="11"/>
     </row>
-    <row r="716" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G716" s="11"/>
     </row>
-    <row r="717" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G717" s="11"/>
     </row>
-    <row r="718" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G718" s="11"/>
     </row>
-    <row r="719" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G719" s="11"/>
     </row>
-    <row r="720" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G720" s="11"/>
     </row>
-    <row r="721" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G721" s="11"/>
     </row>
-    <row r="722" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G722" s="11"/>
     </row>
-    <row r="723" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G723" s="11"/>
     </row>
-    <row r="724" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G724" s="11"/>
     </row>
-    <row r="725" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G725" s="11"/>
     </row>
-    <row r="726" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G726" s="11"/>
     </row>
-    <row r="727" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G727" s="11"/>
     </row>
-    <row r="728" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G728" s="11"/>
     </row>
-    <row r="729" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G729" s="11"/>
     </row>
-    <row r="730" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G730" s="11"/>
     </row>
-    <row r="731" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G731" s="11"/>
     </row>
-    <row r="732" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G732" s="11"/>
     </row>
-    <row r="733" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G733" s="11"/>
     </row>
-    <row r="734" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G734" s="11"/>
     </row>
-    <row r="735" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G735" s="11"/>
     </row>
-    <row r="736" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G736" s="11"/>
     </row>
-    <row r="737" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G737" s="11"/>
     </row>
-    <row r="738" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G738" s="11"/>
     </row>
-    <row r="739" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G739" s="11"/>
     </row>
-    <row r="740" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G740" s="11"/>
     </row>
-    <row r="741" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G741" s="11"/>
     </row>
-    <row r="742" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G742" s="11"/>
     </row>
-    <row r="743" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G743" s="11"/>
     </row>
-    <row r="744" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G744" s="11"/>
     </row>
-    <row r="745" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G745" s="11"/>
     </row>
-    <row r="746" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G746" s="11"/>
     </row>
-    <row r="747" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G747" s="11"/>
     </row>
-    <row r="748" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G748" s="11"/>
     </row>
-    <row r="749" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G749" s="11"/>
     </row>
-    <row r="750" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G750" s="11"/>
     </row>
-    <row r="751" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G751" s="11"/>
     </row>
-    <row r="752" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G752" s="11"/>
     </row>
-    <row r="753" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G753" s="11"/>
     </row>
-    <row r="754" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G754" s="11"/>
     </row>
-    <row r="755" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G755" s="11"/>
     </row>
-    <row r="756" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G756" s="11"/>
     </row>
-    <row r="757" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G757" s="11"/>
     </row>
-    <row r="758" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G758" s="11"/>
     </row>
-    <row r="759" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G759" s="11"/>
     </row>
-    <row r="760" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G760" s="11"/>
     </row>
-    <row r="761" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G761" s="11"/>
     </row>
-    <row r="762" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G762" s="11"/>
     </row>
-    <row r="763" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G763" s="11"/>
     </row>
-    <row r="764" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G764" s="11"/>
     </row>
-    <row r="765" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G765" s="11"/>
     </row>
-    <row r="766" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G766" s="11"/>
     </row>
-    <row r="767" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G767" s="11"/>
     </row>
-    <row r="768" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G768" s="11"/>
     </row>
-    <row r="769" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G769" s="11"/>
     </row>
-    <row r="770" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G770" s="11"/>
     </row>
-    <row r="771" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G771" s="11"/>
     </row>
-    <row r="772" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G772" s="11"/>
     </row>
-    <row r="773" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G773" s="11"/>
     </row>
-    <row r="774" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G774" s="11"/>
     </row>
-    <row r="775" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G775" s="11"/>
     </row>
-    <row r="776" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G776" s="11"/>
     </row>
-    <row r="777" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G777" s="11"/>
     </row>
-    <row r="778" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G778" s="11"/>
     </row>
-    <row r="779" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G779" s="11"/>
     </row>
-    <row r="780" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G780" s="11"/>
     </row>
-    <row r="781" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G781" s="11"/>
     </row>
-    <row r="782" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G782" s="11"/>
     </row>
-    <row r="783" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G783" s="11"/>
     </row>
-    <row r="784" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G784" s="11"/>
     </row>
-    <row r="785" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G785" s="11"/>
     </row>
-    <row r="786" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G786" s="11"/>
     </row>
-    <row r="787" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G787" s="11"/>
     </row>
-    <row r="788" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G788" s="11"/>
     </row>
-    <row r="789" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G789" s="11"/>
     </row>
-    <row r="790" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G790" s="11"/>
     </row>
-    <row r="791" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G791" s="11"/>
     </row>
-    <row r="792" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G792" s="11"/>
     </row>
-    <row r="793" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G793" s="11"/>
     </row>
-    <row r="794" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G794" s="11"/>
     </row>
-    <row r="795" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G795" s="11"/>
     </row>
-    <row r="796" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G796" s="11"/>
     </row>
-    <row r="797" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G797" s="11"/>
     </row>
-    <row r="798" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G798" s="11"/>
     </row>
-    <row r="799" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G799" s="11"/>
     </row>
-    <row r="800" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G800" s="11"/>
     </row>
-    <row r="801" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G801" s="11"/>
     </row>
-    <row r="802" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G802" s="11"/>
     </row>
-    <row r="803" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G803" s="11"/>
     </row>
-    <row r="804" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G804" s="11"/>
     </row>
-    <row r="805" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G805" s="11"/>
     </row>
-    <row r="806" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G806" s="11"/>
     </row>
-    <row r="807" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G807" s="11"/>
     </row>
-    <row r="808" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G808" s="11"/>
     </row>
-    <row r="809" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G809" s="11"/>
     </row>
-    <row r="810" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G810" s="11"/>
     </row>
-    <row r="811" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G811" s="11"/>
     </row>
-    <row r="812" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G812" s="11"/>
     </row>
-    <row r="813" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G813" s="11"/>
     </row>
-    <row r="814" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G814" s="11"/>
     </row>
-    <row r="815" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G815" s="11"/>
     </row>
-    <row r="816" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G816" s="11"/>
     </row>
-    <row r="817" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G817" s="11"/>
     </row>
-    <row r="818" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G818" s="11"/>
     </row>
-    <row r="819" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G819" s="11"/>
     </row>
-    <row r="820" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G820" s="11"/>
     </row>
-    <row r="821" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G821" s="11"/>
     </row>
-    <row r="822" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G822" s="11"/>
     </row>
-    <row r="823" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G823" s="11"/>
     </row>
-    <row r="824" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G824" s="11"/>
     </row>
-    <row r="825" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G825" s="11"/>
     </row>
-    <row r="826" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G826" s="11"/>
     </row>
-    <row r="827" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G827" s="11"/>
     </row>
-    <row r="828" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G828" s="11"/>
     </row>
-    <row r="829" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G829" s="11"/>
     </row>
-    <row r="830" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G830" s="11"/>
     </row>
-    <row r="831" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G831" s="11"/>
     </row>
-    <row r="832" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G832" s="11"/>
     </row>
-    <row r="833" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G833" s="11"/>
     </row>
-    <row r="834" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G834" s="11"/>
     </row>
-    <row r="835" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G835" s="11"/>
     </row>
-    <row r="836" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G836" s="11"/>
     </row>
-    <row r="837" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G837" s="11"/>
     </row>
-    <row r="838" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G838" s="11"/>
     </row>
-    <row r="839" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G839" s="11"/>
     </row>
-    <row r="840" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G840" s="11"/>
     </row>
-    <row r="841" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G841" s="11"/>
     </row>
-    <row r="842" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G842" s="11"/>
     </row>
-    <row r="843" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G843" s="11"/>
     </row>
-    <row r="844" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G844" s="11"/>
     </row>
-    <row r="845" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G845" s="11"/>
     </row>
-    <row r="846" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G846" s="11"/>
     </row>
-    <row r="847" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G847" s="11"/>
     </row>
-    <row r="848" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G848" s="11"/>
     </row>
-    <row r="849" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G849" s="11"/>
     </row>
-    <row r="850" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G850" s="11"/>
     </row>
-    <row r="851" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G851" s="11"/>
     </row>
-    <row r="852" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G852" s="11"/>
     </row>
-    <row r="853" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G853" s="11"/>
     </row>
-    <row r="854" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G854" s="11"/>
     </row>
-    <row r="855" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G855" s="11"/>
     </row>
-    <row r="856" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G856" s="11"/>
     </row>
-    <row r="857" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G857" s="11"/>
     </row>
-    <row r="858" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G858" s="11"/>
     </row>
-    <row r="859" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G859" s="11"/>
     </row>
-    <row r="860" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G860" s="11"/>
     </row>
-    <row r="861" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G861" s="11"/>
     </row>
-    <row r="862" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G862" s="11"/>
     </row>
-    <row r="863" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G863" s="11"/>
     </row>
-    <row r="864" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G864" s="11"/>
     </row>
-    <row r="865" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G865" s="11"/>
     </row>
-    <row r="866" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G866" s="11"/>
     </row>
-    <row r="867" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G867" s="11"/>
     </row>
-    <row r="868" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G868" s="11"/>
     </row>
-    <row r="869" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G869" s="11"/>
     </row>
-    <row r="870" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G870" s="11"/>
     </row>
-    <row r="871" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G871" s="11"/>
     </row>
-    <row r="872" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G872" s="11"/>
     </row>
-    <row r="873" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G873" s="11"/>
     </row>
-    <row r="874" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G874" s="11"/>
     </row>
-    <row r="875" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G875" s="11"/>
     </row>
-    <row r="876" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G876" s="11"/>
     </row>
-    <row r="877" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G877" s="11"/>
     </row>
-    <row r="878" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G878" s="11"/>
     </row>
-    <row r="879" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G879" s="11"/>
     </row>
-    <row r="880" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G880" s="11"/>
     </row>
-    <row r="881" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G881" s="11"/>
     </row>
-    <row r="882" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G882" s="11"/>
     </row>
-    <row r="883" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G883" s="11"/>
     </row>
-    <row r="884" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G884" s="11"/>
     </row>
-    <row r="885" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G885" s="11"/>
     </row>
-    <row r="886" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G886" s="11"/>
     </row>
-    <row r="887" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G887" s="11"/>
     </row>
-    <row r="888" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G888" s="11"/>
     </row>
-    <row r="889" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G889" s="11"/>
     </row>
-    <row r="890" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G890" s="11"/>
     </row>
-    <row r="891" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G891" s="11"/>
     </row>
-    <row r="892" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G892" s="11"/>
     </row>
-    <row r="893" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G893" s="11"/>
     </row>
-    <row r="894" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G894" s="11"/>
     </row>
-    <row r="895" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G895" s="11"/>
     </row>
-    <row r="896" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G896" s="11"/>
     </row>
-    <row r="897" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G897" s="11"/>
     </row>
-    <row r="898" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G898" s="11"/>
     </row>
-    <row r="899" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G899" s="11"/>
     </row>
-    <row r="900" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G900" s="11"/>
     </row>
-    <row r="901" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G901" s="11"/>
     </row>
-    <row r="902" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G902" s="11"/>
     </row>
-    <row r="903" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G903" s="11"/>
     </row>
-    <row r="904" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G904" s="11"/>
     </row>
-    <row r="905" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G905" s="11"/>
     </row>
-    <row r="906" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G906" s="11"/>
     </row>
-    <row r="907" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G907" s="11"/>
     </row>
-    <row r="908" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G908" s="11"/>
     </row>
-    <row r="909" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G909" s="11"/>
     </row>
-    <row r="910" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G910" s="11"/>
     </row>
-    <row r="911" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G911" s="11"/>
     </row>
-    <row r="912" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G912" s="11"/>
     </row>
-    <row r="913" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G913" s="11"/>
     </row>
-    <row r="914" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G914" s="11"/>
     </row>
-    <row r="915" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G915" s="11"/>
     </row>
-    <row r="916" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G916" s="11"/>
     </row>
-    <row r="917" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G917" s="11"/>
     </row>
-    <row r="918" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G918" s="11"/>
     </row>
-    <row r="919" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G919" s="11"/>
     </row>
-    <row r="920" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G920" s="11"/>
     </row>
-    <row r="921" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G921" s="11"/>
     </row>
-    <row r="922" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G922" s="11"/>
     </row>
-    <row r="923" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G923" s="11"/>
     </row>
-    <row r="924" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G924" s="11"/>
     </row>
-    <row r="925" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G925" s="11"/>
     </row>
-    <row r="926" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G926" s="11"/>
     </row>
-    <row r="927" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G927" s="11"/>
     </row>
-    <row r="928" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G928" s="11"/>
     </row>
-    <row r="929" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G929" s="11"/>
     </row>
-    <row r="930" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G930" s="11"/>
     </row>
-    <row r="931" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G931" s="11"/>
     </row>
-    <row r="932" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G932" s="11"/>
     </row>
-    <row r="933" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G933" s="11"/>
     </row>
-    <row r="934" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G934" s="11"/>
     </row>
-    <row r="935" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G935" s="11"/>
     </row>
-    <row r="936" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G936" s="11"/>
     </row>
-    <row r="937" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G937" s="11"/>
     </row>
-    <row r="938" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G938" s="11"/>
     </row>
-    <row r="939" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G939" s="11"/>
     </row>
-    <row r="940" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G940" s="11"/>
     </row>
-    <row r="941" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G941" s="11"/>
     </row>
-    <row r="942" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G942" s="11"/>
     </row>
-    <row r="943" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G943" s="11"/>
     </row>
-    <row r="944" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G944" s="11"/>
     </row>
-    <row r="945" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G945" s="11"/>
     </row>
-    <row r="946" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G946" s="11"/>
     </row>
-    <row r="947" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G947" s="11"/>
     </row>
-    <row r="948" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G948" s="11"/>
     </row>
-    <row r="949" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G949" s="11"/>
     </row>
-    <row r="950" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G950" s="11"/>
     </row>
-    <row r="951" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G951" s="11"/>
     </row>
-    <row r="952" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G952" s="11"/>
     </row>
-    <row r="953" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G953" s="11"/>
     </row>
-    <row r="954" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G954" s="11"/>
     </row>
-    <row r="955" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G955" s="11"/>
     </row>
-    <row r="956" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G956" s="11"/>
     </row>
-    <row r="957" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G957" s="11"/>
     </row>
-    <row r="958" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G958" s="11"/>
     </row>
-    <row r="959" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G959" s="11"/>
     </row>
-    <row r="960" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G960" s="11"/>
     </row>
-    <row r="961" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G961" s="11"/>
     </row>
-    <row r="962" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G962" s="11"/>
     </row>
-    <row r="963" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G963" s="11"/>
     </row>
-    <row r="964" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G964" s="11"/>
     </row>
-    <row r="965" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G965" s="11"/>
     </row>
-    <row r="966" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G966" s="11"/>
     </row>
-    <row r="967" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G967" s="11"/>
     </row>
-    <row r="968" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G968" s="11"/>
     </row>
-    <row r="969" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G969" s="11"/>
     </row>
-    <row r="970" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G970" s="11"/>
     </row>
-    <row r="971" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G971" s="11"/>
     </row>
-    <row r="972" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G972" s="11"/>
     </row>
-    <row r="973" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G973" s="11"/>
     </row>
-    <row r="974" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G974" s="11"/>
     </row>
-    <row r="975" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G975" s="11"/>
     </row>
-    <row r="976" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G976" s="11"/>
     </row>
-    <row r="977" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G977" s="11"/>
     </row>
-    <row r="978" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G978" s="11"/>
     </row>
-    <row r="979" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G979" s="11"/>
     </row>
-    <row r="980" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G980" s="11"/>
     </row>
-    <row r="981" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G981" s="11"/>
     </row>
-    <row r="982" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G982" s="11"/>
     </row>
-    <row r="983" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G983" s="11"/>
     </row>
-    <row r="984" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G984" s="11"/>
     </row>
-    <row r="985" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G985" s="11"/>
     </row>
-    <row r="986" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G986" s="11"/>
     </row>
-    <row r="987" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G987" s="11"/>
     </row>
-    <row r="988" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G988" s="11"/>
     </row>
-    <row r="989" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G989" s="11"/>
     </row>
-    <row r="990" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G990" s="11"/>
     </row>
-    <row r="991" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G991" s="11"/>
     </row>
-    <row r="992" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G992" s="11"/>
     </row>
-    <row r="993" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G993" s="11"/>
     </row>
-    <row r="994" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G994" s="11"/>
     </row>
-    <row r="995" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G995" s="11"/>
     </row>
-    <row r="996" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G996" s="11"/>
     </row>
-    <row r="997" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G997" s="11"/>
     </row>
-    <row r="998" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G998" s="11"/>
     </row>
-    <row r="999" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G999" s="11"/>
     </row>
-    <row r="1000" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G1000" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:B2 D2 D4:D75 F2:H2 F4:H75 J2 J4:J75">
+  <conditionalFormatting sqref="A2:B2 D2 F2:H2 J2 D4:D75 F4:H75 J4:J75">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B2 D2 D4:D75 F2:H2 F4:H75 J2 J4:J75">
     <cfRule type="containsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>

--- a/public/files/Bulk_Registration-TEMPLATE.xlsx
+++ b/public/files/Bulk_Registration-TEMPLATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Prototype-Vite\deployed-project\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33325DCA-9D13-43A7-825F-729DE611C8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76429DD-7A0A-4EA8-B870-2A0628D3F124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="3765" windowWidth="13740" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11064,8 +11064,9 @@
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" sqref="E1 I1 K1:Z1 C1:C2 I2:Z2 A3:Z3 A4:C75 I4:Z75 A76:Z200" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>ISBLANK(A1)</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="equal" allowBlank="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>7</formula1>
+      <formula2>10</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/public/files/Bulk_Registration-TEMPLATE.xlsx
+++ b/public/files/Bulk_Registration-TEMPLATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Prototype-Vite\my-project\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Prototype-Vite\deployed-project\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479C23DC-3052-4827-B108-ECB7F8BF92AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76429DD-7A0A-4EA8-B870-2A0628D3F124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,21 +414,21 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="7" width="23.77734375" customWidth="1"/>
-    <col min="26" max="26" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="7" width="23.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>7</v>
       </c>
@@ -478,7 +478,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2" t="str">
-        <f>IF(AND(ISBLANK(D5),ISBLANK(G5)),"",{"","(Optional)"})</f>
+        <f>IF(AND(ISBLANK(D2),ISBLANK(G2)),"",{"","(Optional)"})</f>
         <v/>
       </c>
       <c r="F2" s="6"/>
@@ -506,7 +506,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -534,7 +534,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -572,7 +572,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -610,7 +610,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -648,7 +648,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -724,7 +724,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -800,7 +800,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -838,7 +838,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -876,7 +876,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -914,7 +914,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -990,7 +990,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1104,7 +1104,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1180,7 +1180,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1370,7 +1370,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -1522,7 +1522,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -1750,7 +1750,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>7</v>
       </c>
@@ -1978,7 +1978,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
@@ -2016,7 +2016,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -2130,7 +2130,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
@@ -2168,7 +2168,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
@@ -2206,7 +2206,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
@@ -2282,7 +2282,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -2320,7 +2320,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
@@ -2358,7 +2358,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
@@ -2396,7 +2396,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>7</v>
       </c>
@@ -2472,7 +2472,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>7</v>
       </c>
@@ -2548,7 +2548,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>7</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>7</v>
       </c>
@@ -2624,7 +2624,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
@@ -2738,7 +2738,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>7</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>7</v>
       </c>
@@ -2814,7 +2814,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
@@ -2890,7 +2890,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>7</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
@@ -2966,7 +2966,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>7</v>
       </c>
@@ -3004,7 +3004,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>7</v>
       </c>
@@ -3042,7 +3042,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>7</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
@@ -3118,7 +3118,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>7</v>
       </c>
@@ -3156,7 +3156,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>7</v>
       </c>
@@ -3194,7 +3194,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>7</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3298,7 +3298,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3326,7 +3326,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3354,7 +3354,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3382,7 +3382,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3410,7 +3410,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3438,7 +3438,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3466,7 +3466,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3494,7 +3494,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3522,7 +3522,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3550,7 +3550,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3578,7 +3578,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3606,7 +3606,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3634,7 +3634,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3662,7 +3662,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3690,7 +3690,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3718,7 +3718,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3746,7 +3746,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3774,7 +3774,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3802,7 +3802,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3830,7 +3830,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3858,7 +3858,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3886,7 +3886,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3914,7 +3914,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3942,7 +3942,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3970,7 +3970,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3998,7 +3998,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4026,7 +4026,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4054,7 +4054,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4082,7 +4082,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4110,7 +4110,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4138,7 +4138,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4166,7 +4166,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4194,7 +4194,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4222,7 +4222,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4250,7 +4250,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4278,7 +4278,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4306,7 +4306,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4334,7 +4334,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4362,7 +4362,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4390,7 +4390,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4418,7 +4418,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4446,7 +4446,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4474,7 +4474,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4502,7 +4502,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4530,7 +4530,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4558,7 +4558,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4586,7 +4586,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4614,7 +4614,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4642,7 +4642,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4670,7 +4670,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4698,7 +4698,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4726,7 +4726,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4754,7 +4754,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4782,7 +4782,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4810,7 +4810,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4838,7 +4838,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4866,7 +4866,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4894,7 +4894,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4922,7 +4922,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4950,7 +4950,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4978,7 +4978,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5006,7 +5006,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5034,7 +5034,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5062,7 +5062,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5090,7 +5090,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5118,7 +5118,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5146,7 +5146,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5174,7 +5174,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5202,7 +5202,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5230,7 +5230,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5258,7 +5258,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5286,7 +5286,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5314,7 +5314,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5342,7 +5342,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5370,7 +5370,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5398,7 +5398,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -5426,7 +5426,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5454,7 +5454,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5482,7 +5482,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5510,7 +5510,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5538,7 +5538,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5566,7 +5566,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5594,7 +5594,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5622,7 +5622,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5650,7 +5650,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5678,7 +5678,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5706,7 +5706,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5734,7 +5734,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5762,7 +5762,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5790,7 +5790,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5818,7 +5818,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5846,7 +5846,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5874,7 +5874,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5902,7 +5902,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5930,7 +5930,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5958,7 +5958,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5986,7 +5986,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6014,7 +6014,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6042,7 +6042,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6070,7 +6070,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6098,7 +6098,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6126,7 +6126,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6154,7 +6154,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6182,7 +6182,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6210,7 +6210,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6238,7 +6238,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6266,7 +6266,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6294,7 +6294,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6322,7 +6322,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6350,7 +6350,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6378,7 +6378,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6406,7 +6406,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6434,7 +6434,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6462,7 +6462,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6490,7 +6490,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6518,7 +6518,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6546,7 +6546,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6574,7 +6574,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6602,7 +6602,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6630,7 +6630,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6658,7 +6658,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6686,7 +6686,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6714,7 +6714,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6742,7 +6742,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6770,7 +6770,7 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -6798,7 +6798,7 @@
       <c r="Y201" s="10"/>
       <c r="Z201" s="10"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -6826,7 +6826,7 @@
       <c r="Y202" s="10"/>
       <c r="Z202" s="10"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -6854,7 +6854,7 @@
       <c r="Y203" s="10"/>
       <c r="Z203" s="10"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -6882,7 +6882,7 @@
       <c r="Y204" s="10"/>
       <c r="Z204" s="10"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -6910,7 +6910,7 @@
       <c r="Y205" s="10"/>
       <c r="Z205" s="10"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -6938,7 +6938,7 @@
       <c r="Y206" s="10"/>
       <c r="Z206" s="10"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -6966,7 +6966,7 @@
       <c r="Y207" s="10"/>
       <c r="Z207" s="10"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -6994,7 +6994,7 @@
       <c r="Y208" s="10"/>
       <c r="Z208" s="10"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -7022,7 +7022,7 @@
       <c r="Y209" s="10"/>
       <c r="Z209" s="10"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -7050,7 +7050,7 @@
       <c r="Y210" s="10"/>
       <c r="Z210" s="10"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -7078,7 +7078,7 @@
       <c r="Y211" s="10"/>
       <c r="Z211" s="10"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -7106,7 +7106,7 @@
       <c r="Y212" s="10"/>
       <c r="Z212" s="10"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -7134,7 +7134,7 @@
       <c r="Y213" s="10"/>
       <c r="Z213" s="10"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -7162,7 +7162,7 @@
       <c r="Y214" s="10"/>
       <c r="Z214" s="10"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -7190,7 +7190,7 @@
       <c r="Y215" s="10"/>
       <c r="Z215" s="10"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -7218,7 +7218,7 @@
       <c r="Y216" s="10"/>
       <c r="Z216" s="10"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -7246,7 +7246,7 @@
       <c r="Y217" s="10"/>
       <c r="Z217" s="10"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -7274,7 +7274,7 @@
       <c r="Y218" s="10"/>
       <c r="Z218" s="10"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -7302,7 +7302,7 @@
       <c r="Y219" s="10"/>
       <c r="Z219" s="10"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -7330,7 +7330,7 @@
       <c r="Y220" s="10"/>
       <c r="Z220" s="10"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -7358,7 +7358,7 @@
       <c r="Y221" s="10"/>
       <c r="Z221" s="10"/>
     </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -7386,7 +7386,7 @@
       <c r="Y222" s="10"/>
       <c r="Z222" s="10"/>
     </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -7414,7 +7414,7 @@
       <c r="Y223" s="10"/>
       <c r="Z223" s="10"/>
     </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -7442,7 +7442,7 @@
       <c r="Y224" s="10"/>
       <c r="Z224" s="10"/>
     </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -7470,7 +7470,7 @@
       <c r="Y225" s="10"/>
       <c r="Z225" s="10"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -7498,7 +7498,7 @@
       <c r="Y226" s="10"/>
       <c r="Z226" s="10"/>
     </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -7526,7 +7526,7 @@
       <c r="Y227" s="10"/>
       <c r="Z227" s="10"/>
     </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -7554,7 +7554,7 @@
       <c r="Y228" s="10"/>
       <c r="Z228" s="10"/>
     </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -7582,7 +7582,7 @@
       <c r="Y229" s="10"/>
       <c r="Z229" s="10"/>
     </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -7610,7 +7610,7 @@
       <c r="Y230" s="10"/>
       <c r="Z230" s="10"/>
     </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="10"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -7638,7 +7638,7 @@
       <c r="Y231" s="10"/>
       <c r="Z231" s="10"/>
     </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="10"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -7666,7 +7666,7 @@
       <c r="Y232" s="10"/>
       <c r="Z232" s="10"/>
     </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -7694,7 +7694,7 @@
       <c r="Y233" s="10"/>
       <c r="Z233" s="10"/>
     </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="10"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -7722,7 +7722,7 @@
       <c r="Y234" s="10"/>
       <c r="Z234" s="10"/>
     </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="10"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -7750,7 +7750,7 @@
       <c r="Y235" s="10"/>
       <c r="Z235" s="10"/>
     </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="10"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -7778,7 +7778,7 @@
       <c r="Y236" s="10"/>
       <c r="Z236" s="10"/>
     </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -7806,7 +7806,7 @@
       <c r="Y237" s="10"/>
       <c r="Z237" s="10"/>
     </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="10"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -7834,7 +7834,7 @@
       <c r="Y238" s="10"/>
       <c r="Z238" s="10"/>
     </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -7862,7 +7862,7 @@
       <c r="Y239" s="10"/>
       <c r="Z239" s="10"/>
     </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -7890,7 +7890,7 @@
       <c r="Y240" s="10"/>
       <c r="Z240" s="10"/>
     </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -7918,7 +7918,7 @@
       <c r="Y241" s="10"/>
       <c r="Z241" s="10"/>
     </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -7946,7 +7946,7 @@
       <c r="Y242" s="10"/>
       <c r="Z242" s="10"/>
     </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -7974,7 +7974,7 @@
       <c r="Y243" s="10"/>
       <c r="Z243" s="10"/>
     </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -8002,7 +8002,7 @@
       <c r="Y244" s="10"/>
       <c r="Z244" s="10"/>
     </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="10"/>
       <c r="B245" s="10"/>
       <c r="C245" s="10"/>
@@ -8030,7 +8030,7 @@
       <c r="Y245" s="10"/>
       <c r="Z245" s="10"/>
     </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="10"/>
       <c r="B246" s="10"/>
       <c r="C246" s="10"/>
@@ -8058,7 +8058,7 @@
       <c r="Y246" s="10"/>
       <c r="Z246" s="10"/>
     </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="10"/>
       <c r="B247" s="10"/>
       <c r="C247" s="10"/>
@@ -8086,7 +8086,7 @@
       <c r="Y247" s="10"/>
       <c r="Z247" s="10"/>
     </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="10"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -8114,7 +8114,7 @@
       <c r="Y248" s="10"/>
       <c r="Z248" s="10"/>
     </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="10"/>
       <c r="B249" s="10"/>
       <c r="C249" s="10"/>
@@ -8142,7 +8142,7 @@
       <c r="Y249" s="10"/>
       <c r="Z249" s="10"/>
     </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="10"/>
       <c r="B250" s="10"/>
       <c r="C250" s="10"/>
@@ -8170,7 +8170,7 @@
       <c r="Y250" s="10"/>
       <c r="Z250" s="10"/>
     </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="10"/>
       <c r="B251" s="10"/>
       <c r="C251" s="10"/>
@@ -8198,7 +8198,7 @@
       <c r="Y251" s="10"/>
       <c r="Z251" s="10"/>
     </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="10"/>
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
@@ -8226,7 +8226,7 @@
       <c r="Y252" s="10"/>
       <c r="Z252" s="10"/>
     </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="10"/>
       <c r="B253" s="10"/>
       <c r="C253" s="10"/>
@@ -8254,7 +8254,7 @@
       <c r="Y253" s="10"/>
       <c r="Z253" s="10"/>
     </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="10"/>
       <c r="B254" s="10"/>
       <c r="C254" s="10"/>
@@ -8282,7 +8282,7 @@
       <c r="Y254" s="10"/>
       <c r="Z254" s="10"/>
     </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
@@ -8310,7 +8310,7 @@
       <c r="Y255" s="10"/>
       <c r="Z255" s="10"/>
     </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="10"/>
       <c r="B256" s="10"/>
       <c r="C256" s="10"/>
@@ -8338,7 +8338,7 @@
       <c r="Y256" s="10"/>
       <c r="Z256" s="10"/>
     </row>
-    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="10"/>
       <c r="B257" s="10"/>
       <c r="C257" s="10"/>
@@ -8366,7 +8366,7 @@
       <c r="Y257" s="10"/>
       <c r="Z257" s="10"/>
     </row>
-    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="10"/>
       <c r="B258" s="10"/>
       <c r="C258" s="10"/>
@@ -8394,7 +8394,7 @@
       <c r="Y258" s="10"/>
       <c r="Z258" s="10"/>
     </row>
-    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="10"/>
       <c r="B259" s="10"/>
       <c r="C259" s="10"/>
@@ -8422,7 +8422,7 @@
       <c r="Y259" s="10"/>
       <c r="Z259" s="10"/>
     </row>
-    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="10"/>
       <c r="B260" s="10"/>
       <c r="C260" s="10"/>
@@ -8450,7 +8450,7 @@
       <c r="Y260" s="10"/>
       <c r="Z260" s="10"/>
     </row>
-    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="10"/>
       <c r="B261" s="10"/>
       <c r="C261" s="10"/>
@@ -8478,7 +8478,7 @@
       <c r="Y261" s="10"/>
       <c r="Z261" s="10"/>
     </row>
-    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="10"/>
       <c r="B262" s="10"/>
       <c r="C262" s="10"/>
@@ -8506,7 +8506,7 @@
       <c r="Y262" s="10"/>
       <c r="Z262" s="10"/>
     </row>
-    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="10"/>
       <c r="B263" s="10"/>
       <c r="C263" s="10"/>
@@ -8534,7 +8534,7 @@
       <c r="Y263" s="10"/>
       <c r="Z263" s="10"/>
     </row>
-    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="10"/>
       <c r="B264" s="10"/>
       <c r="C264" s="10"/>
@@ -8562,7 +8562,7 @@
       <c r="Y264" s="10"/>
       <c r="Z264" s="10"/>
     </row>
-    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="10"/>
       <c r="B265" s="10"/>
       <c r="C265" s="10"/>
@@ -8590,7 +8590,7 @@
       <c r="Y265" s="10"/>
       <c r="Z265" s="10"/>
     </row>
-    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="10"/>
       <c r="B266" s="10"/>
       <c r="C266" s="10"/>
@@ -8618,7 +8618,7 @@
       <c r="Y266" s="10"/>
       <c r="Z266" s="10"/>
     </row>
-    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="10"/>
       <c r="B267" s="10"/>
       <c r="C267" s="10"/>
@@ -8646,7 +8646,7 @@
       <c r="Y267" s="10"/>
       <c r="Z267" s="10"/>
     </row>
-    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="10"/>
       <c r="B268" s="10"/>
       <c r="C268" s="10"/>
@@ -8674,7 +8674,7 @@
       <c r="Y268" s="10"/>
       <c r="Z268" s="10"/>
     </row>
-    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="10"/>
       <c r="B269" s="10"/>
       <c r="C269" s="10"/>
@@ -8702,7 +8702,7 @@
       <c r="Y269" s="10"/>
       <c r="Z269" s="10"/>
     </row>
-    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="10"/>
       <c r="B270" s="10"/>
       <c r="C270" s="10"/>
@@ -8730,7 +8730,7 @@
       <c r="Y270" s="10"/>
       <c r="Z270" s="10"/>
     </row>
-    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="10"/>
       <c r="B271" s="10"/>
       <c r="C271" s="10"/>
@@ -8758,7 +8758,7 @@
       <c r="Y271" s="10"/>
       <c r="Z271" s="10"/>
     </row>
-    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="10"/>
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
@@ -8786,7 +8786,7 @@
       <c r="Y272" s="10"/>
       <c r="Z272" s="10"/>
     </row>
-    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="10"/>
       <c r="B273" s="10"/>
       <c r="C273" s="10"/>
@@ -8814,7 +8814,7 @@
       <c r="Y273" s="10"/>
       <c r="Z273" s="10"/>
     </row>
-    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="10"/>
       <c r="B274" s="10"/>
       <c r="C274" s="10"/>
@@ -8842,7 +8842,7 @@
       <c r="Y274" s="10"/>
       <c r="Z274" s="10"/>
     </row>
-    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="10"/>
       <c r="B275" s="10"/>
       <c r="C275" s="10"/>
@@ -8870,2188 +8870,2186 @@
       <c r="Y275" s="10"/>
       <c r="Z275" s="10"/>
     </row>
-    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G276" s="11"/>
     </row>
-    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G277" s="11"/>
     </row>
-    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G278" s="11"/>
     </row>
-    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G279" s="11"/>
     </row>
-    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G280" s="11"/>
     </row>
-    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G281" s="11"/>
     </row>
-    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G282" s="11"/>
     </row>
-    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G283" s="11"/>
     </row>
-    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G284" s="11"/>
     </row>
-    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G285" s="11"/>
     </row>
-    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G286" s="11"/>
     </row>
-    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G287" s="11"/>
     </row>
-    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G288" s="11"/>
     </row>
-    <row r="289" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G289" s="11"/>
     </row>
-    <row r="290" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G290" s="11"/>
     </row>
-    <row r="291" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G291" s="11"/>
     </row>
-    <row r="292" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G292" s="11"/>
     </row>
-    <row r="293" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G293" s="11"/>
     </row>
-    <row r="294" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G294" s="11"/>
     </row>
-    <row r="295" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G295" s="11"/>
     </row>
-    <row r="296" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G296" s="11"/>
     </row>
-    <row r="297" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G297" s="11"/>
     </row>
-    <row r="298" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G298" s="11"/>
     </row>
-    <row r="299" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G299" s="11"/>
     </row>
-    <row r="300" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G300" s="11"/>
     </row>
-    <row r="301" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G301" s="11"/>
     </row>
-    <row r="302" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G302" s="11"/>
     </row>
-    <row r="303" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G303" s="11"/>
     </row>
-    <row r="304" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G304" s="11"/>
     </row>
-    <row r="305" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G305" s="11"/>
     </row>
-    <row r="306" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G306" s="11"/>
     </row>
-    <row r="307" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G307" s="11"/>
     </row>
-    <row r="308" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G308" s="11"/>
     </row>
-    <row r="309" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G309" s="11"/>
     </row>
-    <row r="310" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G310" s="11"/>
     </row>
-    <row r="311" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G311" s="11"/>
     </row>
-    <row r="312" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G312" s="11"/>
     </row>
-    <row r="313" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G313" s="11"/>
     </row>
-    <row r="314" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G314" s="11"/>
     </row>
-    <row r="315" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G315" s="11"/>
     </row>
-    <row r="316" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G316" s="11"/>
     </row>
-    <row r="317" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G317" s="11"/>
     </row>
-    <row r="318" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G318" s="11"/>
     </row>
-    <row r="319" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G319" s="11"/>
     </row>
-    <row r="320" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G320" s="11"/>
     </row>
-    <row r="321" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G321" s="11"/>
     </row>
-    <row r="322" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G322" s="11"/>
     </row>
-    <row r="323" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G323" s="11"/>
     </row>
-    <row r="324" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G324" s="11"/>
     </row>
-    <row r="325" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G325" s="11"/>
     </row>
-    <row r="326" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G326" s="11"/>
     </row>
-    <row r="327" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G327" s="11"/>
     </row>
-    <row r="328" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G328" s="11"/>
     </row>
-    <row r="329" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G329" s="11"/>
     </row>
-    <row r="330" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G330" s="11"/>
     </row>
-    <row r="331" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G331" s="11"/>
     </row>
-    <row r="332" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G332" s="11"/>
     </row>
-    <row r="333" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G333" s="11"/>
     </row>
-    <row r="334" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G334" s="11"/>
     </row>
-    <row r="335" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G335" s="11"/>
     </row>
-    <row r="336" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G336" s="11"/>
     </row>
-    <row r="337" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G337" s="11"/>
     </row>
-    <row r="338" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G338" s="11"/>
     </row>
-    <row r="339" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G339" s="11"/>
     </row>
-    <row r="340" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G340" s="11"/>
     </row>
-    <row r="341" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G341" s="11"/>
     </row>
-    <row r="342" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G342" s="11"/>
     </row>
-    <row r="343" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G343" s="11"/>
     </row>
-    <row r="344" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G344" s="11"/>
     </row>
-    <row r="345" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G345" s="11"/>
     </row>
-    <row r="346" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G346" s="11"/>
     </row>
-    <row r="347" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G347" s="11"/>
     </row>
-    <row r="348" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G348" s="11"/>
     </row>
-    <row r="349" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G349" s="11"/>
     </row>
-    <row r="350" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G350" s="11"/>
     </row>
-    <row r="351" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G351" s="11"/>
     </row>
-    <row r="352" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G352" s="11"/>
     </row>
-    <row r="353" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G353" s="11"/>
     </row>
-    <row r="354" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G354" s="11"/>
     </row>
-    <row r="355" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G355" s="11"/>
     </row>
-    <row r="356" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G356" s="11"/>
     </row>
-    <row r="357" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G357" s="11"/>
     </row>
-    <row r="358" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G358" s="11"/>
     </row>
-    <row r="359" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G359" s="11"/>
     </row>
-    <row r="360" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G360" s="11"/>
     </row>
-    <row r="361" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G361" s="11"/>
     </row>
-    <row r="362" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G362" s="11"/>
     </row>
-    <row r="363" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G363" s="11"/>
     </row>
-    <row r="364" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G364" s="11"/>
     </row>
-    <row r="365" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G365" s="11"/>
     </row>
-    <row r="366" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G366" s="11"/>
     </row>
-    <row r="367" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G367" s="11"/>
     </row>
-    <row r="368" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G368" s="11"/>
     </row>
-    <row r="369" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G369" s="11"/>
     </row>
-    <row r="370" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G370" s="11"/>
     </row>
-    <row r="371" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G371" s="11"/>
     </row>
-    <row r="372" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G372" s="11"/>
     </row>
-    <row r="373" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G373" s="11"/>
     </row>
-    <row r="374" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G374" s="11"/>
     </row>
-    <row r="375" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G375" s="11"/>
     </row>
-    <row r="376" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G376" s="11"/>
     </row>
-    <row r="377" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G377" s="11"/>
     </row>
-    <row r="378" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G378" s="11"/>
     </row>
-    <row r="379" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G379" s="11"/>
     </row>
-    <row r="380" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G380" s="11"/>
     </row>
-    <row r="381" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G381" s="11"/>
     </row>
-    <row r="382" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G382" s="11"/>
     </row>
-    <row r="383" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G383" s="11"/>
     </row>
-    <row r="384" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G384" s="11"/>
     </row>
-    <row r="385" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G385" s="11"/>
     </row>
-    <row r="386" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G386" s="11"/>
     </row>
-    <row r="387" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G387" s="11"/>
     </row>
-    <row r="388" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G388" s="11"/>
     </row>
-    <row r="389" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G389" s="11"/>
     </row>
-    <row r="390" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G390" s="11"/>
     </row>
-    <row r="391" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G391" s="11"/>
     </row>
-    <row r="392" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G392" s="11"/>
     </row>
-    <row r="393" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G393" s="11"/>
     </row>
-    <row r="394" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G394" s="11"/>
     </row>
-    <row r="395" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G395" s="11"/>
     </row>
-    <row r="396" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G396" s="11"/>
     </row>
-    <row r="397" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G397" s="11"/>
     </row>
-    <row r="398" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G398" s="11"/>
     </row>
-    <row r="399" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G399" s="11"/>
     </row>
-    <row r="400" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G400" s="11"/>
     </row>
-    <row r="401" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G401" s="11"/>
     </row>
-    <row r="402" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G402" s="11"/>
     </row>
-    <row r="403" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G403" s="11"/>
     </row>
-    <row r="404" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G404" s="11"/>
     </row>
-    <row r="405" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G405" s="11"/>
     </row>
-    <row r="406" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G406" s="11"/>
     </row>
-    <row r="407" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G407" s="11"/>
     </row>
-    <row r="408" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G408" s="11"/>
     </row>
-    <row r="409" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G409" s="11"/>
     </row>
-    <row r="410" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G410" s="11"/>
     </row>
-    <row r="411" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G411" s="11"/>
     </row>
-    <row r="412" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G412" s="11"/>
     </row>
-    <row r="413" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G413" s="11"/>
     </row>
-    <row r="414" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G414" s="11"/>
     </row>
-    <row r="415" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G415" s="11"/>
     </row>
-    <row r="416" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G416" s="11"/>
     </row>
-    <row r="417" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G417" s="11"/>
     </row>
-    <row r="418" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G418" s="11"/>
     </row>
-    <row r="419" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G419" s="11"/>
     </row>
-    <row r="420" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G420" s="11"/>
     </row>
-    <row r="421" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G421" s="11"/>
     </row>
-    <row r="422" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G422" s="11"/>
     </row>
-    <row r="423" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G423" s="11"/>
     </row>
-    <row r="424" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G424" s="11"/>
     </row>
-    <row r="425" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G425" s="11"/>
     </row>
-    <row r="426" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G426" s="11"/>
     </row>
-    <row r="427" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G427" s="11"/>
     </row>
-    <row r="428" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G428" s="11"/>
     </row>
-    <row r="429" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G429" s="11"/>
     </row>
-    <row r="430" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G430" s="11"/>
     </row>
-    <row r="431" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G431" s="11"/>
     </row>
-    <row r="432" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G432" s="11"/>
     </row>
-    <row r="433" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G433" s="11"/>
     </row>
-    <row r="434" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G434" s="11"/>
     </row>
-    <row r="435" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G435" s="11"/>
     </row>
-    <row r="436" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G436" s="11"/>
     </row>
-    <row r="437" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G437" s="11"/>
     </row>
-    <row r="438" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G438" s="11"/>
     </row>
-    <row r="439" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G439" s="11"/>
     </row>
-    <row r="440" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G440" s="11"/>
     </row>
-    <row r="441" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G441" s="11"/>
     </row>
-    <row r="442" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G442" s="11"/>
     </row>
-    <row r="443" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G443" s="11"/>
     </row>
-    <row r="444" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G444" s="11"/>
     </row>
-    <row r="445" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G445" s="11"/>
     </row>
-    <row r="446" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G446" s="11"/>
     </row>
-    <row r="447" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G447" s="11"/>
     </row>
-    <row r="448" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G448" s="11"/>
     </row>
-    <row r="449" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G449" s="11"/>
     </row>
-    <row r="450" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G450" s="11"/>
     </row>
-    <row r="451" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G451" s="11"/>
     </row>
-    <row r="452" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G452" s="11"/>
     </row>
-    <row r="453" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G453" s="11"/>
     </row>
-    <row r="454" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G454" s="11"/>
     </row>
-    <row r="455" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G455" s="11"/>
     </row>
-    <row r="456" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G456" s="11"/>
     </row>
-    <row r="457" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G457" s="11"/>
     </row>
-    <row r="458" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G458" s="11"/>
     </row>
-    <row r="459" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G459" s="11"/>
     </row>
-    <row r="460" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G460" s="11"/>
     </row>
-    <row r="461" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G461" s="11"/>
     </row>
-    <row r="462" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G462" s="11"/>
     </row>
-    <row r="463" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G463" s="11"/>
     </row>
-    <row r="464" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G464" s="11"/>
     </row>
-    <row r="465" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G465" s="11"/>
     </row>
-    <row r="466" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G466" s="11"/>
     </row>
-    <row r="467" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G467" s="11"/>
     </row>
-    <row r="468" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G468" s="11"/>
     </row>
-    <row r="469" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G469" s="11"/>
     </row>
-    <row r="470" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G470" s="11"/>
     </row>
-    <row r="471" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G471" s="11"/>
     </row>
-    <row r="472" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G472" s="11"/>
     </row>
-    <row r="473" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G473" s="11"/>
     </row>
-    <row r="474" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G474" s="11"/>
     </row>
-    <row r="475" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G475" s="11"/>
     </row>
-    <row r="476" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G476" s="11"/>
     </row>
-    <row r="477" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G477" s="11"/>
     </row>
-    <row r="478" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G478" s="11"/>
     </row>
-    <row r="479" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G479" s="11"/>
     </row>
-    <row r="480" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G480" s="11"/>
     </row>
-    <row r="481" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G481" s="11"/>
     </row>
-    <row r="482" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G482" s="11"/>
     </row>
-    <row r="483" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G483" s="11"/>
     </row>
-    <row r="484" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G484" s="11"/>
     </row>
-    <row r="485" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G485" s="11"/>
     </row>
-    <row r="486" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G486" s="11"/>
     </row>
-    <row r="487" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G487" s="11"/>
     </row>
-    <row r="488" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G488" s="11"/>
     </row>
-    <row r="489" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G489" s="11"/>
     </row>
-    <row r="490" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G490" s="11"/>
     </row>
-    <row r="491" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G491" s="11"/>
     </row>
-    <row r="492" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G492" s="11"/>
     </row>
-    <row r="493" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G493" s="11"/>
     </row>
-    <row r="494" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G494" s="11"/>
     </row>
-    <row r="495" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G495" s="11"/>
     </row>
-    <row r="496" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G496" s="11"/>
     </row>
-    <row r="497" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G497" s="11"/>
     </row>
-    <row r="498" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G498" s="11"/>
     </row>
-    <row r="499" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G499" s="11"/>
     </row>
-    <row r="500" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G500" s="11"/>
     </row>
-    <row r="501" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G501" s="11"/>
     </row>
-    <row r="502" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G502" s="11"/>
     </row>
-    <row r="503" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G503" s="11"/>
     </row>
-    <row r="504" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G504" s="11"/>
     </row>
-    <row r="505" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G505" s="11"/>
     </row>
-    <row r="506" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G506" s="11"/>
     </row>
-    <row r="507" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G507" s="11"/>
     </row>
-    <row r="508" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G508" s="11"/>
     </row>
-    <row r="509" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G509" s="11"/>
     </row>
-    <row r="510" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G510" s="11"/>
     </row>
-    <row r="511" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G511" s="11"/>
     </row>
-    <row r="512" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G512" s="11"/>
     </row>
-    <row r="513" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G513" s="11"/>
     </row>
-    <row r="514" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G514" s="11"/>
     </row>
-    <row r="515" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G515" s="11"/>
     </row>
-    <row r="516" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G516" s="11"/>
     </row>
-    <row r="517" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G517" s="11"/>
     </row>
-    <row r="518" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G518" s="11"/>
     </row>
-    <row r="519" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G519" s="11"/>
     </row>
-    <row r="520" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G520" s="11"/>
     </row>
-    <row r="521" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G521" s="11"/>
     </row>
-    <row r="522" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G522" s="11"/>
     </row>
-    <row r="523" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G523" s="11"/>
     </row>
-    <row r="524" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G524" s="11"/>
     </row>
-    <row r="525" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G525" s="11"/>
     </row>
-    <row r="526" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G526" s="11"/>
     </row>
-    <row r="527" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G527" s="11"/>
     </row>
-    <row r="528" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G528" s="11"/>
     </row>
-    <row r="529" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G529" s="11"/>
     </row>
-    <row r="530" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G530" s="11"/>
     </row>
-    <row r="531" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G531" s="11"/>
     </row>
-    <row r="532" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G532" s="11"/>
     </row>
-    <row r="533" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G533" s="11"/>
     </row>
-    <row r="534" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G534" s="11"/>
     </row>
-    <row r="535" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G535" s="11"/>
     </row>
-    <row r="536" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G536" s="11"/>
     </row>
-    <row r="537" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G537" s="11"/>
     </row>
-    <row r="538" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G538" s="11"/>
     </row>
-    <row r="539" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G539" s="11"/>
     </row>
-    <row r="540" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G540" s="11"/>
     </row>
-    <row r="541" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G541" s="11"/>
     </row>
-    <row r="542" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G542" s="11"/>
     </row>
-    <row r="543" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G543" s="11"/>
     </row>
-    <row r="544" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G544" s="11"/>
     </row>
-    <row r="545" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G545" s="11"/>
     </row>
-    <row r="546" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G546" s="11"/>
     </row>
-    <row r="547" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G547" s="11"/>
     </row>
-    <row r="548" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G548" s="11"/>
     </row>
-    <row r="549" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G549" s="11"/>
     </row>
-    <row r="550" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G550" s="11"/>
     </row>
-    <row r="551" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G551" s="11"/>
     </row>
-    <row r="552" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G552" s="11"/>
     </row>
-    <row r="553" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G553" s="11"/>
     </row>
-    <row r="554" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G554" s="11"/>
     </row>
-    <row r="555" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G555" s="11"/>
     </row>
-    <row r="556" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G556" s="11"/>
     </row>
-    <row r="557" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G557" s="11"/>
     </row>
-    <row r="558" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G558" s="11"/>
     </row>
-    <row r="559" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G559" s="11"/>
     </row>
-    <row r="560" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G560" s="11"/>
     </row>
-    <row r="561" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G561" s="11"/>
     </row>
-    <row r="562" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G562" s="11"/>
     </row>
-    <row r="563" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G563" s="11"/>
     </row>
-    <row r="564" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G564" s="11"/>
     </row>
-    <row r="565" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G565" s="11"/>
     </row>
-    <row r="566" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G566" s="11"/>
     </row>
-    <row r="567" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G567" s="11"/>
     </row>
-    <row r="568" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G568" s="11"/>
     </row>
-    <row r="569" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G569" s="11"/>
     </row>
-    <row r="570" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G570" s="11"/>
     </row>
-    <row r="571" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G571" s="11"/>
     </row>
-    <row r="572" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G572" s="11"/>
     </row>
-    <row r="573" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G573" s="11"/>
     </row>
-    <row r="574" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G574" s="11"/>
     </row>
-    <row r="575" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G575" s="11"/>
     </row>
-    <row r="576" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G576" s="11"/>
     </row>
-    <row r="577" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G577" s="11"/>
     </row>
-    <row r="578" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G578" s="11"/>
     </row>
-    <row r="579" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G579" s="11"/>
     </row>
-    <row r="580" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G580" s="11"/>
     </row>
-    <row r="581" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G581" s="11"/>
     </row>
-    <row r="582" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G582" s="11"/>
     </row>
-    <row r="583" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G583" s="11"/>
     </row>
-    <row r="584" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G584" s="11"/>
     </row>
-    <row r="585" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G585" s="11"/>
     </row>
-    <row r="586" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G586" s="11"/>
     </row>
-    <row r="587" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G587" s="11"/>
     </row>
-    <row r="588" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G588" s="11"/>
     </row>
-    <row r="589" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G589" s="11"/>
     </row>
-    <row r="590" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G590" s="11"/>
     </row>
-    <row r="591" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G591" s="11"/>
     </row>
-    <row r="592" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G592" s="11"/>
     </row>
-    <row r="593" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G593" s="11"/>
     </row>
-    <row r="594" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G594" s="11"/>
     </row>
-    <row r="595" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G595" s="11"/>
     </row>
-    <row r="596" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G596" s="11"/>
     </row>
-    <row r="597" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G597" s="11"/>
     </row>
-    <row r="598" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G598" s="11"/>
     </row>
-    <row r="599" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G599" s="11"/>
     </row>
-    <row r="600" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G600" s="11"/>
     </row>
-    <row r="601" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G601" s="11"/>
     </row>
-    <row r="602" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G602" s="11"/>
     </row>
-    <row r="603" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G603" s="11"/>
     </row>
-    <row r="604" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G604" s="11"/>
     </row>
-    <row r="605" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G605" s="11"/>
     </row>
-    <row r="606" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G606" s="11"/>
     </row>
-    <row r="607" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G607" s="11"/>
     </row>
-    <row r="608" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G608" s="11"/>
     </row>
-    <row r="609" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G609" s="11"/>
     </row>
-    <row r="610" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G610" s="11"/>
     </row>
-    <row r="611" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G611" s="11"/>
     </row>
-    <row r="612" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G612" s="11"/>
     </row>
-    <row r="613" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G613" s="11"/>
     </row>
-    <row r="614" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G614" s="11"/>
     </row>
-    <row r="615" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G615" s="11"/>
     </row>
-    <row r="616" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G616" s="11"/>
     </row>
-    <row r="617" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G617" s="11"/>
     </row>
-    <row r="618" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G618" s="11"/>
     </row>
-    <row r="619" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G619" s="11"/>
     </row>
-    <row r="620" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G620" s="11"/>
     </row>
-    <row r="621" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G621" s="11"/>
     </row>
-    <row r="622" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G622" s="11"/>
     </row>
-    <row r="623" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G623" s="11"/>
     </row>
-    <row r="624" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G624" s="11"/>
     </row>
-    <row r="625" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G625" s="11"/>
     </row>
-    <row r="626" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G626" s="11"/>
     </row>
-    <row r="627" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G627" s="11"/>
     </row>
-    <row r="628" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G628" s="11"/>
     </row>
-    <row r="629" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G629" s="11"/>
     </row>
-    <row r="630" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G630" s="11"/>
     </row>
-    <row r="631" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G631" s="11"/>
     </row>
-    <row r="632" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G632" s="11"/>
     </row>
-    <row r="633" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G633" s="11"/>
     </row>
-    <row r="634" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G634" s="11"/>
     </row>
-    <row r="635" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G635" s="11"/>
     </row>
-    <row r="636" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G636" s="11"/>
     </row>
-    <row r="637" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G637" s="11"/>
     </row>
-    <row r="638" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G638" s="11"/>
     </row>
-    <row r="639" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G639" s="11"/>
     </row>
-    <row r="640" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G640" s="11"/>
     </row>
-    <row r="641" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G641" s="11"/>
     </row>
-    <row r="642" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G642" s="11"/>
     </row>
-    <row r="643" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G643" s="11"/>
     </row>
-    <row r="644" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G644" s="11"/>
     </row>
-    <row r="645" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G645" s="11"/>
     </row>
-    <row r="646" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G646" s="11"/>
     </row>
-    <row r="647" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G647" s="11"/>
     </row>
-    <row r="648" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G648" s="11"/>
     </row>
-    <row r="649" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G649" s="11"/>
     </row>
-    <row r="650" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G650" s="11"/>
     </row>
-    <row r="651" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G651" s="11"/>
     </row>
-    <row r="652" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G652" s="11"/>
     </row>
-    <row r="653" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G653" s="11"/>
     </row>
-    <row r="654" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G654" s="11"/>
     </row>
-    <row r="655" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G655" s="11"/>
     </row>
-    <row r="656" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G656" s="11"/>
     </row>
-    <row r="657" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G657" s="11"/>
     </row>
-    <row r="658" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G658" s="11"/>
     </row>
-    <row r="659" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G659" s="11"/>
     </row>
-    <row r="660" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G660" s="11"/>
     </row>
-    <row r="661" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G661" s="11"/>
     </row>
-    <row r="662" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G662" s="11"/>
     </row>
-    <row r="663" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G663" s="11"/>
     </row>
-    <row r="664" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G664" s="11"/>
     </row>
-    <row r="665" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G665" s="11"/>
     </row>
-    <row r="666" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G666" s="11"/>
     </row>
-    <row r="667" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G667" s="11"/>
     </row>
-    <row r="668" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G668" s="11"/>
     </row>
-    <row r="669" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G669" s="11"/>
     </row>
-    <row r="670" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G670" s="11"/>
     </row>
-    <row r="671" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G671" s="11"/>
     </row>
-    <row r="672" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G672" s="11"/>
     </row>
-    <row r="673" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G673" s="11"/>
     </row>
-    <row r="674" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G674" s="11"/>
     </row>
-    <row r="675" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G675" s="11"/>
     </row>
-    <row r="676" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G676" s="11"/>
     </row>
-    <row r="677" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G677" s="11"/>
     </row>
-    <row r="678" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G678" s="11"/>
     </row>
-    <row r="679" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G679" s="11"/>
     </row>
-    <row r="680" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G680" s="11"/>
     </row>
-    <row r="681" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G681" s="11"/>
     </row>
-    <row r="682" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G682" s="11"/>
     </row>
-    <row r="683" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G683" s="11"/>
     </row>
-    <row r="684" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G684" s="11"/>
     </row>
-    <row r="685" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G685" s="11"/>
     </row>
-    <row r="686" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G686" s="11"/>
     </row>
-    <row r="687" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G687" s="11"/>
     </row>
-    <row r="688" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G688" s="11"/>
     </row>
-    <row r="689" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G689" s="11"/>
     </row>
-    <row r="690" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G690" s="11"/>
     </row>
-    <row r="691" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G691" s="11"/>
     </row>
-    <row r="692" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G692" s="11"/>
     </row>
-    <row r="693" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G693" s="11"/>
     </row>
-    <row r="694" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G694" s="11"/>
     </row>
-    <row r="695" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G695" s="11"/>
     </row>
-    <row r="696" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G696" s="11"/>
     </row>
-    <row r="697" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G697" s="11"/>
     </row>
-    <row r="698" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G698" s="11"/>
     </row>
-    <row r="699" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G699" s="11"/>
     </row>
-    <row r="700" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G700" s="11"/>
     </row>
-    <row r="701" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G701" s="11"/>
     </row>
-    <row r="702" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G702" s="11"/>
     </row>
-    <row r="703" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G703" s="11"/>
     </row>
-    <row r="704" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G704" s="11"/>
     </row>
-    <row r="705" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G705" s="11"/>
     </row>
-    <row r="706" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G706" s="11"/>
     </row>
-    <row r="707" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G707" s="11"/>
     </row>
-    <row r="708" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G708" s="11"/>
     </row>
-    <row r="709" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G709" s="11"/>
     </row>
-    <row r="710" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G710" s="11"/>
     </row>
-    <row r="711" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G711" s="11"/>
     </row>
-    <row r="712" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G712" s="11"/>
     </row>
-    <row r="713" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G713" s="11"/>
     </row>
-    <row r="714" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G714" s="11"/>
     </row>
-    <row r="715" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G715" s="11"/>
     </row>
-    <row r="716" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G716" s="11"/>
     </row>
-    <row r="717" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G717" s="11"/>
     </row>
-    <row r="718" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G718" s="11"/>
     </row>
-    <row r="719" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G719" s="11"/>
     </row>
-    <row r="720" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G720" s="11"/>
     </row>
-    <row r="721" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G721" s="11"/>
     </row>
-    <row r="722" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G722" s="11"/>
     </row>
-    <row r="723" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G723" s="11"/>
     </row>
-    <row r="724" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G724" s="11"/>
     </row>
-    <row r="725" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G725" s="11"/>
     </row>
-    <row r="726" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G726" s="11"/>
     </row>
-    <row r="727" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G727" s="11"/>
     </row>
-    <row r="728" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G728" s="11"/>
     </row>
-    <row r="729" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G729" s="11"/>
     </row>
-    <row r="730" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G730" s="11"/>
     </row>
-    <row r="731" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G731" s="11"/>
     </row>
-    <row r="732" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G732" s="11"/>
     </row>
-    <row r="733" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G733" s="11"/>
     </row>
-    <row r="734" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G734" s="11"/>
     </row>
-    <row r="735" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G735" s="11"/>
     </row>
-    <row r="736" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G736" s="11"/>
     </row>
-    <row r="737" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G737" s="11"/>
     </row>
-    <row r="738" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G738" s="11"/>
     </row>
-    <row r="739" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G739" s="11"/>
     </row>
-    <row r="740" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G740" s="11"/>
     </row>
-    <row r="741" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G741" s="11"/>
     </row>
-    <row r="742" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G742" s="11"/>
     </row>
-    <row r="743" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G743" s="11"/>
     </row>
-    <row r="744" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G744" s="11"/>
     </row>
-    <row r="745" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G745" s="11"/>
     </row>
-    <row r="746" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G746" s="11"/>
     </row>
-    <row r="747" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G747" s="11"/>
     </row>
-    <row r="748" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G748" s="11"/>
     </row>
-    <row r="749" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G749" s="11"/>
     </row>
-    <row r="750" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G750" s="11"/>
     </row>
-    <row r="751" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G751" s="11"/>
     </row>
-    <row r="752" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G752" s="11"/>
     </row>
-    <row r="753" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G753" s="11"/>
     </row>
-    <row r="754" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G754" s="11"/>
     </row>
-    <row r="755" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G755" s="11"/>
     </row>
-    <row r="756" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G756" s="11"/>
     </row>
-    <row r="757" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G757" s="11"/>
     </row>
-    <row r="758" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G758" s="11"/>
     </row>
-    <row r="759" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G759" s="11"/>
     </row>
-    <row r="760" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G760" s="11"/>
     </row>
-    <row r="761" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G761" s="11"/>
     </row>
-    <row r="762" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G762" s="11"/>
     </row>
-    <row r="763" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G763" s="11"/>
     </row>
-    <row r="764" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G764" s="11"/>
     </row>
-    <row r="765" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G765" s="11"/>
     </row>
-    <row r="766" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G766" s="11"/>
     </row>
-    <row r="767" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G767" s="11"/>
     </row>
-    <row r="768" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G768" s="11"/>
     </row>
-    <row r="769" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G769" s="11"/>
     </row>
-    <row r="770" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G770" s="11"/>
     </row>
-    <row r="771" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G771" s="11"/>
     </row>
-    <row r="772" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G772" s="11"/>
     </row>
-    <row r="773" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G773" s="11"/>
     </row>
-    <row r="774" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G774" s="11"/>
     </row>
-    <row r="775" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G775" s="11"/>
     </row>
-    <row r="776" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G776" s="11"/>
     </row>
-    <row r="777" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G777" s="11"/>
     </row>
-    <row r="778" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G778" s="11"/>
     </row>
-    <row r="779" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G779" s="11"/>
     </row>
-    <row r="780" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G780" s="11"/>
     </row>
-    <row r="781" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G781" s="11"/>
     </row>
-    <row r="782" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G782" s="11"/>
     </row>
-    <row r="783" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G783" s="11"/>
     </row>
-    <row r="784" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G784" s="11"/>
     </row>
-    <row r="785" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G785" s="11"/>
     </row>
-    <row r="786" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G786" s="11"/>
     </row>
-    <row r="787" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G787" s="11"/>
     </row>
-    <row r="788" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G788" s="11"/>
     </row>
-    <row r="789" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G789" s="11"/>
     </row>
-    <row r="790" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G790" s="11"/>
     </row>
-    <row r="791" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G791" s="11"/>
     </row>
-    <row r="792" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G792" s="11"/>
     </row>
-    <row r="793" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G793" s="11"/>
     </row>
-    <row r="794" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G794" s="11"/>
     </row>
-    <row r="795" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G795" s="11"/>
     </row>
-    <row r="796" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G796" s="11"/>
     </row>
-    <row r="797" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G797" s="11"/>
     </row>
-    <row r="798" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G798" s="11"/>
     </row>
-    <row r="799" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G799" s="11"/>
     </row>
-    <row r="800" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G800" s="11"/>
     </row>
-    <row r="801" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G801" s="11"/>
     </row>
-    <row r="802" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G802" s="11"/>
     </row>
-    <row r="803" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G803" s="11"/>
     </row>
-    <row r="804" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G804" s="11"/>
     </row>
-    <row r="805" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G805" s="11"/>
     </row>
-    <row r="806" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G806" s="11"/>
     </row>
-    <row r="807" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G807" s="11"/>
     </row>
-    <row r="808" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G808" s="11"/>
     </row>
-    <row r="809" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G809" s="11"/>
     </row>
-    <row r="810" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G810" s="11"/>
     </row>
-    <row r="811" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G811" s="11"/>
     </row>
-    <row r="812" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G812" s="11"/>
     </row>
-    <row r="813" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G813" s="11"/>
     </row>
-    <row r="814" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G814" s="11"/>
     </row>
-    <row r="815" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G815" s="11"/>
     </row>
-    <row r="816" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G816" s="11"/>
     </row>
-    <row r="817" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G817" s="11"/>
     </row>
-    <row r="818" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G818" s="11"/>
     </row>
-    <row r="819" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G819" s="11"/>
     </row>
-    <row r="820" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G820" s="11"/>
     </row>
-    <row r="821" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G821" s="11"/>
     </row>
-    <row r="822" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G822" s="11"/>
     </row>
-    <row r="823" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G823" s="11"/>
     </row>
-    <row r="824" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G824" s="11"/>
     </row>
-    <row r="825" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G825" s="11"/>
     </row>
-    <row r="826" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G826" s="11"/>
     </row>
-    <row r="827" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G827" s="11"/>
     </row>
-    <row r="828" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G828" s="11"/>
     </row>
-    <row r="829" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G829" s="11"/>
     </row>
-    <row r="830" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G830" s="11"/>
     </row>
-    <row r="831" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G831" s="11"/>
     </row>
-    <row r="832" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G832" s="11"/>
     </row>
-    <row r="833" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G833" s="11"/>
     </row>
-    <row r="834" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G834" s="11"/>
     </row>
-    <row r="835" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G835" s="11"/>
     </row>
-    <row r="836" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G836" s="11"/>
     </row>
-    <row r="837" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G837" s="11"/>
     </row>
-    <row r="838" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G838" s="11"/>
     </row>
-    <row r="839" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G839" s="11"/>
     </row>
-    <row r="840" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G840" s="11"/>
     </row>
-    <row r="841" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G841" s="11"/>
     </row>
-    <row r="842" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G842" s="11"/>
     </row>
-    <row r="843" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G843" s="11"/>
     </row>
-    <row r="844" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G844" s="11"/>
     </row>
-    <row r="845" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G845" s="11"/>
     </row>
-    <row r="846" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G846" s="11"/>
     </row>
-    <row r="847" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G847" s="11"/>
     </row>
-    <row r="848" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G848" s="11"/>
     </row>
-    <row r="849" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G849" s="11"/>
     </row>
-    <row r="850" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G850" s="11"/>
     </row>
-    <row r="851" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G851" s="11"/>
     </row>
-    <row r="852" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G852" s="11"/>
     </row>
-    <row r="853" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G853" s="11"/>
     </row>
-    <row r="854" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G854" s="11"/>
     </row>
-    <row r="855" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G855" s="11"/>
     </row>
-    <row r="856" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G856" s="11"/>
     </row>
-    <row r="857" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G857" s="11"/>
     </row>
-    <row r="858" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G858" s="11"/>
     </row>
-    <row r="859" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G859" s="11"/>
     </row>
-    <row r="860" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G860" s="11"/>
     </row>
-    <row r="861" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G861" s="11"/>
     </row>
-    <row r="862" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G862" s="11"/>
     </row>
-    <row r="863" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G863" s="11"/>
     </row>
-    <row r="864" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G864" s="11"/>
     </row>
-    <row r="865" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G865" s="11"/>
     </row>
-    <row r="866" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G866" s="11"/>
     </row>
-    <row r="867" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G867" s="11"/>
     </row>
-    <row r="868" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G868" s="11"/>
     </row>
-    <row r="869" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G869" s="11"/>
     </row>
-    <row r="870" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G870" s="11"/>
     </row>
-    <row r="871" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G871" s="11"/>
     </row>
-    <row r="872" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G872" s="11"/>
     </row>
-    <row r="873" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G873" s="11"/>
     </row>
-    <row r="874" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G874" s="11"/>
     </row>
-    <row r="875" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G875" s="11"/>
     </row>
-    <row r="876" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G876" s="11"/>
     </row>
-    <row r="877" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G877" s="11"/>
     </row>
-    <row r="878" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G878" s="11"/>
     </row>
-    <row r="879" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G879" s="11"/>
     </row>
-    <row r="880" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G880" s="11"/>
     </row>
-    <row r="881" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G881" s="11"/>
     </row>
-    <row r="882" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G882" s="11"/>
     </row>
-    <row r="883" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G883" s="11"/>
     </row>
-    <row r="884" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G884" s="11"/>
     </row>
-    <row r="885" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G885" s="11"/>
     </row>
-    <row r="886" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G886" s="11"/>
     </row>
-    <row r="887" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G887" s="11"/>
     </row>
-    <row r="888" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G888" s="11"/>
     </row>
-    <row r="889" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G889" s="11"/>
     </row>
-    <row r="890" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G890" s="11"/>
     </row>
-    <row r="891" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G891" s="11"/>
     </row>
-    <row r="892" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G892" s="11"/>
     </row>
-    <row r="893" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G893" s="11"/>
     </row>
-    <row r="894" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G894" s="11"/>
     </row>
-    <row r="895" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G895" s="11"/>
     </row>
-    <row r="896" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G896" s="11"/>
     </row>
-    <row r="897" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G897" s="11"/>
     </row>
-    <row r="898" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G898" s="11"/>
     </row>
-    <row r="899" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G899" s="11"/>
     </row>
-    <row r="900" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G900" s="11"/>
     </row>
-    <row r="901" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G901" s="11"/>
     </row>
-    <row r="902" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G902" s="11"/>
     </row>
-    <row r="903" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G903" s="11"/>
     </row>
-    <row r="904" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G904" s="11"/>
     </row>
-    <row r="905" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G905" s="11"/>
     </row>
-    <row r="906" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G906" s="11"/>
     </row>
-    <row r="907" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G907" s="11"/>
     </row>
-    <row r="908" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G908" s="11"/>
     </row>
-    <row r="909" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G909" s="11"/>
     </row>
-    <row r="910" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G910" s="11"/>
     </row>
-    <row r="911" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G911" s="11"/>
     </row>
-    <row r="912" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G912" s="11"/>
     </row>
-    <row r="913" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G913" s="11"/>
     </row>
-    <row r="914" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G914" s="11"/>
     </row>
-    <row r="915" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G915" s="11"/>
     </row>
-    <row r="916" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G916" s="11"/>
     </row>
-    <row r="917" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G917" s="11"/>
     </row>
-    <row r="918" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G918" s="11"/>
     </row>
-    <row r="919" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G919" s="11"/>
     </row>
-    <row r="920" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G920" s="11"/>
     </row>
-    <row r="921" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G921" s="11"/>
     </row>
-    <row r="922" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G922" s="11"/>
     </row>
-    <row r="923" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G923" s="11"/>
     </row>
-    <row r="924" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G924" s="11"/>
     </row>
-    <row r="925" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G925" s="11"/>
     </row>
-    <row r="926" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G926" s="11"/>
     </row>
-    <row r="927" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G927" s="11"/>
     </row>
-    <row r="928" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G928" s="11"/>
     </row>
-    <row r="929" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G929" s="11"/>
     </row>
-    <row r="930" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G930" s="11"/>
     </row>
-    <row r="931" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G931" s="11"/>
     </row>
-    <row r="932" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G932" s="11"/>
     </row>
-    <row r="933" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G933" s="11"/>
     </row>
-    <row r="934" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G934" s="11"/>
     </row>
-    <row r="935" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G935" s="11"/>
     </row>
-    <row r="936" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G936" s="11"/>
     </row>
-    <row r="937" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G937" s="11"/>
     </row>
-    <row r="938" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G938" s="11"/>
     </row>
-    <row r="939" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G939" s="11"/>
     </row>
-    <row r="940" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G940" s="11"/>
     </row>
-    <row r="941" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G941" s="11"/>
     </row>
-    <row r="942" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G942" s="11"/>
     </row>
-    <row r="943" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G943" s="11"/>
     </row>
-    <row r="944" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G944" s="11"/>
     </row>
-    <row r="945" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G945" s="11"/>
     </row>
-    <row r="946" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G946" s="11"/>
     </row>
-    <row r="947" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G947" s="11"/>
     </row>
-    <row r="948" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G948" s="11"/>
     </row>
-    <row r="949" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G949" s="11"/>
     </row>
-    <row r="950" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G950" s="11"/>
     </row>
-    <row r="951" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G951" s="11"/>
     </row>
-    <row r="952" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G952" s="11"/>
     </row>
-    <row r="953" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G953" s="11"/>
     </row>
-    <row r="954" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G954" s="11"/>
     </row>
-    <row r="955" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G955" s="11"/>
     </row>
-    <row r="956" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G956" s="11"/>
     </row>
-    <row r="957" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G957" s="11"/>
     </row>
-    <row r="958" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G958" s="11"/>
     </row>
-    <row r="959" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G959" s="11"/>
     </row>
-    <row r="960" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G960" s="11"/>
     </row>
-    <row r="961" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G961" s="11"/>
     </row>
-    <row r="962" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G962" s="11"/>
     </row>
-    <row r="963" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G963" s="11"/>
     </row>
-    <row r="964" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G964" s="11"/>
     </row>
-    <row r="965" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G965" s="11"/>
     </row>
-    <row r="966" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G966" s="11"/>
     </row>
-    <row r="967" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G967" s="11"/>
     </row>
-    <row r="968" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G968" s="11"/>
     </row>
-    <row r="969" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G969" s="11"/>
     </row>
-    <row r="970" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G970" s="11"/>
     </row>
-    <row r="971" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G971" s="11"/>
     </row>
-    <row r="972" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G972" s="11"/>
     </row>
-    <row r="973" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G973" s="11"/>
     </row>
-    <row r="974" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G974" s="11"/>
     </row>
-    <row r="975" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G975" s="11"/>
     </row>
-    <row r="976" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G976" s="11"/>
     </row>
-    <row r="977" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G977" s="11"/>
     </row>
-    <row r="978" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G978" s="11"/>
     </row>
-    <row r="979" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G979" s="11"/>
     </row>
-    <row r="980" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G980" s="11"/>
     </row>
-    <row r="981" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G981" s="11"/>
     </row>
-    <row r="982" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G982" s="11"/>
     </row>
-    <row r="983" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G983" s="11"/>
     </row>
-    <row r="984" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G984" s="11"/>
     </row>
-    <row r="985" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G985" s="11"/>
     </row>
-    <row r="986" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G986" s="11"/>
     </row>
-    <row r="987" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G987" s="11"/>
     </row>
-    <row r="988" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G988" s="11"/>
     </row>
-    <row r="989" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G989" s="11"/>
     </row>
-    <row r="990" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G990" s="11"/>
     </row>
-    <row r="991" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G991" s="11"/>
     </row>
-    <row r="992" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G992" s="11"/>
     </row>
-    <row r="993" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G993" s="11"/>
     </row>
-    <row r="994" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G994" s="11"/>
     </row>
-    <row r="995" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G995" s="11"/>
     </row>
-    <row r="996" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G996" s="11"/>
     </row>
-    <row r="997" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G997" s="11"/>
     </row>
-    <row r="998" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G998" s="11"/>
     </row>
-    <row r="999" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G999" s="11"/>
     </row>
-    <row r="1000" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G1000" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:B2 D2 D4:D75 F2:H2 F4:H75 J2 J4:J75">
+  <conditionalFormatting sqref="A2:B2 D2 F2:H2 J2 D4:D75 F4:H75 J4:J75">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B2 D2 D4:D75 F2:H2 F4:H75 J2 J4:J75">
     <cfRule type="containsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
@@ -11066,8 +11064,9 @@
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" sqref="E1 I1 K1:Z1 C1:C2 I2:Z2 A3:Z3 A4:C75 I4:Z75 A76:Z200" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>ISBLANK(A1)</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="equal" allowBlank="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>7</formula1>
+      <formula2>10</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
